--- a/reviewer_scores_dynamic.xlsx
+++ b/reviewer_scores_dynamic.xlsx
@@ -476,7 +476,7 @@
         <v>0.02756060478015057</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3799714637026087</v>
+        <v>0.1544308064491873</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>0.2762376301072642</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5290546761527968</v>
+        <v>0.4471267255186047</v>
       </c>
       <c r="D3" t="n">
         <v>0.02061923912153897</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3009590657237789</v>
+        <v>0.1276370748391884</v>
       </c>
     </row>
     <row r="4">
@@ -508,89 +508,89 @@
         <v>0.2178077171598468</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4823023361406559</v>
+        <v>0.4267590677109712</v>
       </c>
       <c r="D4" t="n">
         <v>0.02271051181589766</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2581366617852997</v>
+        <v>0.09749352067857066</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>kazutakahirata</t>
+          <t>jhuber6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4324493135327011</v>
+        <v>0.1752203738178582</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003090569221986657</v>
+        <v>0.455798220862514</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008059615601788264</v>
+        <v>0.02106127907747014</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2187637506533042</v>
+        <v>0.0840773904605384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jhuber6</t>
+          <t>farzonl</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1752203738178582</v>
+        <v>0.1403880037113766</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3897675893202791</v>
+        <v>0.5366943758282455</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02106127907747014</v>
+        <v>0.008463953253168373</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2087527195205068</v>
+        <v>0.07703824267628435</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>farzonl</t>
+          <t>zyn0217</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1403880037113766</v>
+        <v>0.2015222773226015</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4184016684177475</v>
+        <v>0.2882503572077185</v>
       </c>
       <c r="D7" t="n">
-        <v>0.008463953253168373</v>
+        <v>0.013431812497565</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1974072930316462</v>
+        <v>0.06077523092306578</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>arsenm</t>
+          <t>llvm-beanz</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.127782221677948</v>
+        <v>0.1961337233640253</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4355576982100828</v>
+        <v>0.2995342626689089</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01416930035908345</v>
+        <v>0.009851140764181031</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1973922803738155</v>
+        <v>0.06071899836518729</v>
       </c>
     </row>
     <row r="9">
@@ -603,4022 +603,4022 @@
         <v>0.1443983431367281</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4001618779002752</v>
+        <v>0.3918409560468164</v>
       </c>
       <c r="D9" t="n">
         <v>0.01710987093363444</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1956697091251735</v>
+        <v>0.06000315901299868</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>shafik</t>
+          <t>arsenm</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2771295820459811</v>
+        <v>0.127782221677948</v>
       </c>
       <c r="C10" t="n">
-        <v>0.153816481006841</v>
+        <v>0.4140289338485075</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0143509979476751</v>
+        <v>0.01416930035908345</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1875799349145779</v>
+        <v>0.05573939707793114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Xazax-hun</t>
+          <t>shafik</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1450041648577787</v>
+        <v>0.2771295820459811</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3526794453878998</v>
+        <v>0.1856569408544275</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01427923315291802</v>
+        <v>0.0143509979476751</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1811617626758429</v>
+        <v>0.05432123001245796</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>zyn0217</t>
+          <t>Icohedron</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2015222773226015</v>
+        <v>0.1337453374282066</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2564073291875272</v>
+        <v>0.3553645007453289</v>
       </c>
       <c r="D12" t="n">
-        <v>0.013431812497565</v>
+        <v>0.004239952642518504</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1803696999170719</v>
+        <v>0.04837633559069388</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>llvm-beanz</t>
+          <t>Sirraide</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1961337233640253</v>
+        <v>0.169601703297714</v>
       </c>
       <c r="C13" t="n">
-        <v>0.23660599105423</v>
+        <v>0.2523738518671824</v>
       </c>
       <c r="D13" t="n">
-        <v>0.009851140764181031</v>
+        <v>0.005844416806184373</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1710188871511179</v>
+        <v>0.04397191850571597</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>bogner</t>
+          <t>Xazax-hun</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1703306733735116</v>
+        <v>0.1450041648577787</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2613784752203228</v>
+        <v>0.2426044482472998</v>
       </c>
       <c r="D14" t="n">
-        <v>0.009457118672695592</v>
+        <v>0.01427923315291802</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1654703029873918</v>
+        <v>0.0380345020394655</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>tbaederr</t>
+          <t>spall</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2834564671572998</v>
+        <v>0.183585753274114</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0499516801880879</v>
+        <v>0.1932986552981967</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003900898287551068</v>
+        <v>0.008290222702318448</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1574939172925865</v>
+        <v>0.03714492378025645</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>nikic</t>
+          <t>mizvekov</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05478944529542248</v>
+        <v>0.1080238736198915</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4117715605819798</v>
+        <v>0.3113584974232236</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01309396194033127</v>
+        <v>0.0106684512372564</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1535449832103714</v>
+        <v>0.03576784122357691</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-rasmud</t>
+          <t>bogner</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09249453575810293</v>
+        <v>0.1703306733735116</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3349374394680641</v>
+        <v>0.1984062453062328</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00505168952228238</v>
+        <v>0.009457118672695592</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1477388376239272</v>
+        <v>0.03568609309905988</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>spall</t>
+          <t>hekota</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.183585753274114</v>
+        <v>0.1273812093542912</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1778853937762346</v>
+        <v>0.2433105789776028</v>
       </c>
       <c r="D18" t="n">
-        <v>0.008290222702318448</v>
+        <v>0.006198017833715729</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1468165393103911</v>
+        <v>0.03223279936560298</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>efriedma-quic</t>
+          <t>Artem-B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2047554491748875</v>
+        <v>0.142958228083967</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1397705187925791</v>
+        <v>0.2039610374603263</v>
       </c>
       <c r="D19" t="n">
-        <v>0.008763135394734009</v>
+        <v>0.009762283815307376</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1460615073041643</v>
+        <v>0.03111036527655735</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sirraide</t>
+          <t>efriedma-quic</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.169601703297714</v>
+        <v>0.2047554491748875</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1997950596944093</v>
+        <v>0.1213678163134824</v>
       </c>
       <c r="D20" t="n">
-        <v>0.005844416806184373</v>
+        <v>0.008763135394734009</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1459082529184167</v>
+        <v>0.02660334882358913</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hokein</t>
+          <t>t-rasmud</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2434129691629195</v>
+        <v>0.09249453575810293</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07578399853967351</v>
+        <v>0.2606774708781785</v>
       </c>
       <c r="D21" t="n">
-        <v>0.006373104940264766</v>
+        <v>0.00505168952228238</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1457163051314148</v>
+        <v>0.02512157955592999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Icohedron</t>
+          <t>tbaederr</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1337453374282066</v>
+        <v>0.2834564671572998</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2392973101307929</v>
+        <v>0.07757059043114801</v>
       </c>
       <c r="D22" t="n">
-        <v>0.004239952642518504</v>
+        <v>0.003900898287551068</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1395098522818449</v>
+        <v>0.02276806517642927</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Artem-B</t>
+          <t>V-FEXrt</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.142958228083967</v>
+        <v>0.18631424192216</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2055150018975133</v>
+        <v>0.114295154872263</v>
       </c>
       <c r="D23" t="n">
-        <v>0.009762283815307376</v>
+        <v>0.004972906852059193</v>
       </c>
       <c r="E23" t="n">
-        <v>0.135086071374299</v>
+        <v>0.0222893965058134</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MaskRay</t>
+          <t>nikic</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1749891352264616</v>
+        <v>0.05478944529542248</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1417810971834674</v>
+        <v>0.3581485213411121</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01297048585743434</v>
+        <v>0.01309396194033127</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1326229939397579</v>
+        <v>0.02224155120572157</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ChuanqiXu9</t>
+          <t>MaskRay</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2241516378982815</v>
+        <v>0.1749891352264616</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06635870153232677</v>
+        <v>0.1098157459687661</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002938333437227695</v>
+        <v>0.01297048585743434</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1325710960962843</v>
+        <v>0.02181065959281004</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>bob80905</t>
+          <t>NagyDonat</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1773569154500856</v>
+        <v>0.1145532843718209</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1359934986313502</v>
+        <v>0.1698139865504397</v>
       </c>
       <c r="D26" t="n">
-        <v>0.005087410454297294</v>
+        <v>0.01111270660822461</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1304939894053073</v>
+        <v>0.02167529121327001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>mizvekov</t>
+          <t>topperc</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1080238736198915</v>
+        <v>0.06827719449202344</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2399538530605599</v>
+        <v>0.2806300832979101</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0106684512372564</v>
+        <v>0.009785316174033741</v>
       </c>
       <c r="E27" t="n">
-        <v>0.128131782975565</v>
+        <v>0.0211176980124509</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>V-FEXrt</t>
+          <t>bob80905</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.18631424192216</v>
+        <v>0.1773569154500856</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1132271494986927</v>
+        <v>0.1096720369032241</v>
       </c>
       <c r="D28" t="n">
-        <v>0.004972906852059193</v>
+        <v>0.005087410454297294</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1281198471810996</v>
+        <v>0.02046857626714324</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vgvassilev</t>
+          <t>momo5502</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2285814490216752</v>
+        <v>0.1230331709041959</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04169400500485182</v>
+        <v>0.1558884738420982</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003014020317586932</v>
+        <v>0.00161984905379624</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1274017300758105</v>
+        <v>0.01950342305496839</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>topperc</t>
+          <t>andykaylor</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.06827719449202344</v>
+        <v>0.04135607058173334</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2987952885322072</v>
+        <v>0.4162780664475085</v>
       </c>
       <c r="D30" t="n">
-        <v>0.009785316174033741</v>
+        <v>0.009655672832474961</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1257342470404806</v>
+        <v>0.01914675966412563</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hekota</t>
+          <t>zygoloid</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1273812093542912</v>
+        <v>0.1715759576894795</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1811231189908226</v>
+        <v>0.1067989595176374</v>
       </c>
       <c r="D31" t="n">
-        <v>0.006198017833715729</v>
+        <v>0.002340940690021573</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1192671439411355</v>
+        <v>0.01879232189748291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>zygoloid</t>
+          <t>hokein</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1715759576894795</v>
+        <v>0.2434129691629195</v>
       </c>
       <c r="C32" t="n">
-        <v>0.100901228927434</v>
+        <v>0.06841716306501222</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002340940690021573</v>
+        <v>0.006373104940264766</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1165265356609742</v>
+        <v>0.01792824579141121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GS-GOAT</t>
+          <t>Fznamznon</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2326074972025579</v>
+        <v>0.08578949638780507</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.1903079149371512</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0006751556873061794</v>
+        <v>0.008001767083174977</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1164387797387402</v>
+        <v>0.01792677359770644</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>fmayer</t>
+          <t>rniwa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2292162691198907</v>
+        <v>0.08571697426659936</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.1942561521414105</v>
       </c>
       <c r="D34" t="n">
-        <v>0.003605045607734747</v>
+        <v>0.005853064801800119</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1153291436814923</v>
+        <v>0.01782166255459391</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>bcardosolopes</t>
+          <t>a-tarasyuk</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.03609777772102175</v>
+        <v>0.1551157425706325</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3148834251984629</v>
+        <v>0.10320014432474</v>
       </c>
       <c r="D35" t="n">
-        <v>0.007940210223437178</v>
+        <v>0.002423847977197704</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1141019584647372</v>
+        <v>0.01649273661576804</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>shynur</t>
+          <t>ChuanqiXu9</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2225235145681233</v>
+        <v>0.2241516378982815</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.06913296785931751</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0009067044516196708</v>
+        <v>0.002938333437227695</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1114430981743856</v>
+        <v>0.01608393466588081</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>kadircet</t>
+          <t>sarnex</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2038569638300421</v>
+        <v>0.1515324324254414</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01515796381455263</v>
+        <v>0.08618700697366932</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002616668878589588</v>
+        <v>0.006347004226524076</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1069992048351048</v>
+        <v>0.01432952765549341</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HighCommander4</t>
+          <t>lenary</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2056598753035569</v>
+        <v>0.05794627770211652</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01070079403462009</v>
+        <v>0.2080690651676945</v>
       </c>
       <c r="D38" t="n">
-        <v>0.003477433743759735</v>
+        <v>0.007799777445406306</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1067356626109165</v>
+        <v>0.01361678332050826</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>anutosh491</t>
+          <t>AmrDeveloper</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2048577223679972</v>
+        <v>0.0795320453135312</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.1461455565566709</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001332373007819214</v>
+        <v>0.003214949829609029</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1026953357855624</v>
+        <v>0.01226624499235819</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>andykaylor</t>
+          <t>bcardosolopes</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.04135607058173334</v>
+        <v>0.03609777772102175</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2614086200602993</v>
+        <v>0.2864363879493115</v>
       </c>
       <c r="D40" t="n">
-        <v>0.009655672832474961</v>
+        <v>0.007940210223437178</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1010317558754514</v>
+        <v>0.01192775910809403</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>carlocab</t>
+          <t>alexey-bataev</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1598041703029142</v>
+        <v>0.1384763216888605</v>
       </c>
       <c r="C41" t="n">
-        <v>0.06634388651134429</v>
+        <v>0.07667695693764534</v>
       </c>
       <c r="D41" t="n">
-        <v>0.003439158010087017</v>
+        <v>0.004542801132702793</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1004930827068778</v>
+        <v>0.01152650318156084</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NagyDonat</t>
+          <t>shiltian</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1145532843718209</v>
+        <v>0.1225554906756907</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1327817293642983</v>
+        <v>0.08383671891084819</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01111270660822461</v>
+        <v>0.005866589860224244</v>
       </c>
       <c r="E42" t="n">
-        <v>0.09933370231684487</v>
+        <v>0.01144796819480381</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>YutongZhuu</t>
+          <t>yxsamliu</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1829801463111609</v>
+        <v>0.1614049651254086</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02373755186922567</v>
+        <v>0.06181556364522524</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001100754857582173</v>
+        <v>0.00431201106792419</v>
       </c>
       <c r="E43" t="n">
-        <v>0.09883148968786458</v>
+        <v>0.01083974110794989</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>yxsamliu</t>
+          <t>Meinersbur</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1614049651254086</v>
+        <v>0.1367924786989557</v>
       </c>
       <c r="C44" t="n">
-        <v>0.05460573664806492</v>
+        <v>0.07022608850118127</v>
       </c>
       <c r="D44" t="n">
-        <v>0.00431201106792419</v>
+        <v>0.004166420429246081</v>
       </c>
       <c r="E44" t="n">
-        <v>0.09794660577070861</v>
+        <v>0.01043968480125804</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>a-tarasyuk</t>
+          <t>damyanp</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1551157425706325</v>
+        <v>0.1522767341811014</v>
       </c>
       <c r="C45" t="n">
-        <v>0.06404063425446808</v>
+        <v>0.064670608502923</v>
       </c>
       <c r="D45" t="n">
-        <v>0.002423847977197704</v>
+        <v>0.0029113166687238</v>
       </c>
       <c r="E45" t="n">
-        <v>0.09725483115709624</v>
+        <v>0.01043009239407444</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sarnex</t>
+          <t>Bigcheese</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1515324324254414</v>
+        <v>0.09897692344204469</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06715898400089586</v>
+        <v>0.09095554652766802</v>
       </c>
       <c r="D46" t="n">
-        <v>0.006347004226524076</v>
+        <v>0.006213496507055401</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09718331225829425</v>
+        <v>0.01024519946670941</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ziqingluo-90</t>
+          <t>dtcxzyw</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1828518673417112</v>
+        <v>0.09109429494648832</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01284275002997652</v>
+        <v>0.1009759485008218</v>
       </c>
       <c r="D47" t="n">
-        <v>0.002243110603708977</v>
+        <v>0.004477814085182211</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09572738080059033</v>
+        <v>0.01009389565227172</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>alexey-bataev</t>
+          <t>AlexVlx</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1384763216888605</v>
+        <v>0.1127743189132471</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08279991367464892</v>
+        <v>0.07414175662190398</v>
       </c>
       <c r="D48" t="n">
-        <v>0.004542801132702793</v>
+        <v>0.004938650413455811</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0949866951733655</v>
+        <v>0.009349016188758111</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>hjyamauchi</t>
+          <t>zhaohuiw42</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1844658982413747</v>
+        <v>0.166775066627686</v>
       </c>
       <c r="C49" t="n">
-        <v>0.007603920624481377</v>
+        <v>0.05213620281002113</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0008555853885959611</v>
+        <v>0.001266845666782124</v>
       </c>
       <c r="E49" t="n">
-        <v>0.09468524238575093</v>
+        <v>0.008948387830712248</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>rjmansfield</t>
+          <t>joaosaffran</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1841465904902639</v>
+        <v>0.1491646880244539</v>
       </c>
       <c r="C50" t="n">
-        <v>0.005507369780937508</v>
+        <v>0.05322614481629554</v>
       </c>
       <c r="D50" t="n">
-        <v>0.001255583903481999</v>
+        <v>0.003254629291758908</v>
       </c>
       <c r="E50" t="n">
-        <v>0.09397662296010963</v>
+        <v>0.008590387144618909</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Meinersbur</t>
+          <t>zmodem</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1367924786989557</v>
+        <v>0.1284491690458483</v>
       </c>
       <c r="C51" t="n">
-        <v>0.08148542117932187</v>
+        <v>0.05763422897631444</v>
       </c>
       <c r="D51" t="n">
-        <v>0.004166420429246081</v>
+        <v>0.004689965373372631</v>
       </c>
       <c r="E51" t="n">
-        <v>0.09367514978912364</v>
+        <v>0.008341061895280269</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bigcheese</t>
+          <t>YutongZhuu</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.09897692344204469</v>
+        <v>0.1829801463111609</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1409096253140972</v>
+        <v>0.04194680396242337</v>
       </c>
       <c r="D52" t="n">
-        <v>0.006213496507055401</v>
+        <v>0.001100754857582173</v>
       </c>
       <c r="E52" t="n">
-        <v>0.09300404861666259</v>
+        <v>0.007895583297846247</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>zhaohuiw42</t>
+          <t>carlocab</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.166775066627686</v>
+        <v>0.1598041703029142</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02950369757791308</v>
+        <v>0.039078924635646</v>
       </c>
       <c r="D53" t="n">
-        <v>0.001266845666782124</v>
+        <v>0.003439158010087017</v>
       </c>
       <c r="E53" t="n">
-        <v>0.09249201172057335</v>
+        <v>0.006932806729746926</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MagentaTreehouse</t>
+          <t>jvoung</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1844658982413747</v>
+        <v>0.1121450667409893</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>0.0550770121693257</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0007302176236229918</v>
+        <v>0.003488702553644707</v>
       </c>
       <c r="E54" t="n">
-        <v>0.09237899264541193</v>
+        <v>0.006874355716352252</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mikaelholmen</t>
+          <t>rnk</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1763380019192584</v>
+        <v>0.08263718191917023</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01151458091355488</v>
+        <v>0.06961688782092855</v>
       </c>
       <c r="D55" t="n">
-        <v>0.001403388304559038</v>
+        <v>0.004603583953196959</v>
       </c>
       <c r="E55" t="n">
-        <v>0.09190405289460749</v>
+        <v>0.006673660214143931</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>joaosaffran</t>
+          <t>tarunprabhu</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1491646880244539</v>
+        <v>0.05721767031497422</v>
       </c>
       <c r="C56" t="n">
-        <v>0.05159943113966531</v>
+        <v>0.09702273545782356</v>
       </c>
       <c r="D56" t="n">
-        <v>0.003254629291758908</v>
+        <v>0.00546374124604397</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0907130992124783</v>
+        <v>0.006644163139691502</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>alexfh</t>
+          <t>rjmccall</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1751656177013606</v>
+        <v>0.1390376049074036</v>
       </c>
       <c r="C57" t="n">
-        <v>0.007530453239496322</v>
+        <v>0.04281791004151287</v>
       </c>
       <c r="D57" t="n">
-        <v>0.001317403877110918</v>
+        <v>0.003044648409674036</v>
       </c>
       <c r="E57" t="n">
-        <v>0.09010542559795137</v>
+        <v>0.006562229341247421</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>damyanp</t>
+          <t>jansvoboda11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1522767341811014</v>
+        <v>0.0616572221611985</v>
       </c>
       <c r="C58" t="n">
-        <v>0.04382400161128602</v>
+        <v>0.08490938107072939</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0029113166687238</v>
+        <v>0.006628329322199917</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08986783090768126</v>
+        <v>0.006560942436687808</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>zwuis</t>
+          <t>npmiller</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1621804107716139</v>
+        <v>0.1475602129367469</v>
       </c>
       <c r="C59" t="n">
-        <v>0.02662937376379712</v>
+        <v>0.04327179284214208</v>
       </c>
       <c r="D59" t="n">
-        <v>0.002719389924365509</v>
+        <v>0.0007862703945052405</v>
       </c>
       <c r="E59" t="n">
-        <v>0.08962289549981917</v>
+        <v>0.006542449044842333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Fznamznon</t>
+          <t>Ami-zhang</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.08578949638780507</v>
+        <v>0.08846362387127502</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1503156599805426</v>
+        <v>0.06739446342244884</v>
       </c>
       <c r="D60" t="n">
-        <v>0.008001767083174977</v>
+        <v>0.001967096081262347</v>
       </c>
       <c r="E60" t="n">
-        <v>0.08958979960470032</v>
+        <v>0.006355377679462386</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>higher-performance</t>
+          <t>dschuff</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1751656177013606</v>
+        <v>0.1217662601456702</v>
       </c>
       <c r="C61" t="n">
-        <v>0.00247640385330702</v>
+        <v>0.04653815448646845</v>
       </c>
       <c r="D61" t="n">
-        <v>0.001617739450159755</v>
+        <v>0.003288710014065698</v>
       </c>
       <c r="E61" t="n">
-        <v>0.08864927789670435</v>
+        <v>0.006324519028711845</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>jplehr</t>
+          <t>metkarpoonam</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1573033971734922</v>
+        <v>0.1318847396285035</v>
       </c>
       <c r="C62" t="n">
-        <v>0.03064685529035821</v>
+        <v>0.04583923981259276</v>
       </c>
       <c r="D62" t="n">
-        <v>0.003597442960399221</v>
+        <v>0.001144184542642087</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0885652437659334</v>
+        <v>0.006274333115980744</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>momo5502</t>
+          <t>vgvassilev</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1230331709041959</v>
+        <v>0.2285814490216752</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08821675036210438</v>
+        <v>0.02455926182534157</v>
       </c>
       <c r="D63" t="n">
-        <v>0.00161984905379624</v>
+        <v>0.003014020317586932</v>
       </c>
       <c r="E63" t="n">
-        <v>0.08830558037148852</v>
+        <v>0.006216595718456673</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>bader</t>
+          <t>svenvh</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1518537483498364</v>
+        <v>0.1418635049539687</v>
       </c>
       <c r="C64" t="n">
-        <v>0.03906862382142172</v>
+        <v>0.03545001644260732</v>
       </c>
       <c r="D64" t="n">
-        <v>0.003260658273747312</v>
+        <v>0.004446017293393503</v>
       </c>
       <c r="E64" t="n">
-        <v>0.08829959297609417</v>
+        <v>0.005918267041902797</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>shiltian</t>
+          <t>Endilll</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1225554906756907</v>
+        <v>0.06340125158617438</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08111642921224035</v>
+        <v>0.07518949520213056</v>
       </c>
       <c r="D65" t="n">
-        <v>0.005866589860224244</v>
+        <v>0.005090204298513893</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0867859920735623</v>
+        <v>0.00578514896165051</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>zmodem</t>
+          <t>kmpeng</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1284491690458483</v>
+        <v>0.05295502749113632</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07188734253491655</v>
+        <v>0.1056169156236007</v>
       </c>
       <c r="D66" t="n">
-        <v>0.004689965373372631</v>
+        <v>0.0008219865810274839</v>
       </c>
       <c r="E66" t="n">
-        <v>0.08672878035807365</v>
+        <v>0.005757343986582299</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DavidSpickett</t>
+          <t>tahonermann</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1582683807608933</v>
+        <v>0.1002305692239645</v>
       </c>
       <c r="C67" t="n">
-        <v>0.02119177461941525</v>
+        <v>0.05428314941232917</v>
       </c>
       <c r="D67" t="n">
-        <v>0.004910581987273384</v>
+        <v>0.001259173649342877</v>
       </c>
       <c r="E67" t="n">
-        <v>0.08647383916372592</v>
+        <v>0.00569266569473584</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>rjmccall</t>
+          <t>necto</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1390376049074036</v>
+        <v>0.05997303583506156</v>
       </c>
       <c r="C68" t="n">
-        <v>0.04776303385146437</v>
+        <v>0.08591126809848776</v>
       </c>
       <c r="D68" t="n">
-        <v>0.003044648409674036</v>
+        <v>0.002465236298210707</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0844566422910759</v>
+        <v>0.005645406819948328</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>svenvh</t>
+          <t>isuckatcs</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1418635049539687</v>
+        <v>0.1115917987889978</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04085370254721758</v>
+        <v>0.04610674788728384</v>
       </c>
       <c r="D69" t="n">
-        <v>0.004446017293393503</v>
+        <v>0.001873069447142157</v>
       </c>
       <c r="E69" t="n">
-        <v>0.08407706669982833</v>
+        <v>0.005519748822481259</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>bgra8</t>
+          <t>foxtran</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1554316434745599</v>
+        <v>0.1517913621006816</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01636012884045783</v>
+        <v>0.03456617488787023</v>
       </c>
       <c r="D70" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.0007148670939525523</v>
       </c>
       <c r="E70" t="n">
-        <v>0.08326161549145811</v>
+        <v>0.005389820187630707</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>philnik777</t>
+          <t>bader</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1528043368335303</v>
+        <v>0.1518537483498364</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01856241017503367</v>
+        <v>0.03118207300336718</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0009519806379660678</v>
+        <v>0.003260658273747312</v>
       </c>
       <c r="E71" t="n">
-        <v>0.08216128759686844</v>
+        <v>0.005387246321629009</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>hstk30-hw</t>
+          <t>tex3d</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1391393084684307</v>
+        <v>0.1301925962631464</v>
       </c>
       <c r="C72" t="n">
-        <v>0.03886126706511939</v>
+        <v>0.03906861253475118</v>
       </c>
       <c r="D72" t="n">
-        <v>0.003708239039446616</v>
+        <v>0.001162597911695318</v>
       </c>
       <c r="E72" t="n">
-        <v>0.08196968216164049</v>
+        <v>0.005318963680637223</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>foxtran</t>
+          <t>smithp35</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1517913621006816</v>
+        <v>0.07526940045658398</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01956087929980499</v>
+        <v>0.05821285641050489</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0007148670939525523</v>
+        <v>0.004660197984099385</v>
       </c>
       <c r="E73" t="n">
-        <v>0.08190691825907279</v>
+        <v>0.005313686397703792</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>mjklemm</t>
+          <t>philnik777</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.154865614719354</v>
+        <v>0.1528043368335303</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01371650303223565</v>
+        <v>0.03280177269214028</v>
       </c>
       <c r="D74" t="n">
-        <v>0.001718218766371494</v>
+        <v>0.0009519806379660678</v>
       </c>
       <c r="E74" t="n">
-        <v>0.08189140202262199</v>
+        <v>0.005202649250779912</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AlexVlx</t>
+          <t>zwuis</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1127743189132471</v>
+        <v>0.1621804107716139</v>
       </c>
       <c r="C75" t="n">
-        <v>0.08170101376775162</v>
+        <v>0.02790701292811709</v>
       </c>
       <c r="D75" t="n">
-        <v>0.004938650413455811</v>
+        <v>0.002719389924365509</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0818851936696402</v>
+        <v>0.005069848804963869</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>jyknight</t>
+          <t>dkolsen-pgi</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1476858907277708</v>
+        <v>0.02362003573699191</v>
       </c>
       <c r="C76" t="n">
-        <v>0.02550837370869651</v>
+        <v>0.159964786294082</v>
       </c>
       <c r="D76" t="n">
-        <v>0.001749242502549851</v>
+        <v>0.004615022232906002</v>
       </c>
       <c r="E76" t="n">
-        <v>0.08184530597700432</v>
+        <v>0.004701378415507689</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>npmiller</t>
+          <t>svs-quic</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1475602129367469</v>
+        <v>0.03971264048416689</v>
       </c>
       <c r="C77" t="n">
-        <v>0.02448735851210233</v>
+        <v>0.1015681823298541</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0007862703945052405</v>
+        <v>0.003298347273707773</v>
       </c>
       <c r="E77" t="n">
-        <v>0.08128356810090519</v>
+        <v>0.004693210164237365</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>dschuff</t>
+          <t>Flandini</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1217662601456702</v>
+        <v>0.07276814022141645</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0623670594430424</v>
+        <v>0.05923662761468082</v>
       </c>
       <c r="D78" t="n">
-        <v>0.003288710014065698</v>
+        <v>0.001699547557237609</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08025098990856096</v>
+        <v>0.004650448735956446</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>rniwa</t>
+          <t>HighCommander4</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.08571697426659936</v>
+        <v>0.2056598753035569</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1196214172725173</v>
+        <v>0.01890945250316248</v>
       </c>
       <c r="D79" t="n">
-        <v>0.005853064801800119</v>
+        <v>0.003477433743759735</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0799155252754149</v>
+        <v>0.004584402392610876</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>malavikasamak</t>
+          <t>zahiraam</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1534730088367179</v>
+        <v>0.1469485917280301</v>
       </c>
       <c r="C80" t="n">
-        <v>0.007898834677899098</v>
+        <v>0.02865123660799189</v>
       </c>
       <c r="D80" t="n">
-        <v>0.001589853581534807</v>
+        <v>0.001477360898987947</v>
       </c>
       <c r="E80" t="n">
-        <v>0.07942412553803566</v>
+        <v>0.004505731050608581</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>antangelo</t>
+          <t>hchandel</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1534626721795175</v>
+        <v>0.03698890649918567</v>
       </c>
       <c r="C81" t="n">
-        <v>0.007970150847472202</v>
+        <v>0.1037775795442915</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0011528257657607</v>
+        <v>0.003159394926218475</v>
       </c>
       <c r="E81" t="n">
-        <v>0.07935294649715254</v>
+        <v>0.004470498171719296</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>zahiraam</t>
+          <t>flovent</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1469485917280301</v>
+        <v>0.06339048423462083</v>
       </c>
       <c r="C82" t="n">
-        <v>0.01621363610226225</v>
+        <v>0.0649421371641072</v>
       </c>
       <c r="D82" t="n">
-        <v>0.001477360898987947</v>
+        <v>0.0009675590512030641</v>
       </c>
       <c r="E82" t="n">
-        <v>0.07863385887449133</v>
+        <v>0.004310225332304534</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>junlarsen</t>
+          <t>preames</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1477578348900112</v>
+        <v>0.05163179402281858</v>
       </c>
       <c r="C83" t="n">
-        <v>0.01367971628233977</v>
+        <v>0.06375236084167109</v>
       </c>
       <c r="D83" t="n">
-        <v>0.002332012373449136</v>
+        <v>0.00462824687242201</v>
       </c>
       <c r="E83" t="n">
-        <v>0.07844923480439739</v>
+        <v>0.004217298137929968</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>apple-fcloutier</t>
+          <t>xlauko</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1554316434745599</v>
+        <v>0.02592117883635606</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>0.1277477111604115</v>
       </c>
       <c r="D84" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.004524031285617602</v>
       </c>
       <c r="E84" t="n">
-        <v>0.07835357683932076</v>
+        <v>0.004216177524047705</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>tex3d</t>
+          <t>jplehr</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1301925962631464</v>
+        <v>0.1573033971734922</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0432024355881219</v>
+        <v>0.02200291225458326</v>
       </c>
       <c r="D85" t="n">
-        <v>0.001162597911695318</v>
+        <v>0.003597442960399221</v>
       </c>
       <c r="E85" t="n">
-        <v>0.07828954839034881</v>
+        <v>0.004180621437436053</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ravurvi20</t>
+          <t>sjoerdmeijer</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.154865614719354</v>
+        <v>0.1266637219048866</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>0.02689800422237859</v>
       </c>
       <c r="D86" t="n">
-        <v>0.001718218766371494</v>
+        <v>0.003366076321653605</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0777764511129513</v>
+        <v>0.004080216590950549</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>dtcxzyw</t>
+          <t>ampandey-1995</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.09109429494648832</v>
+        <v>0.08805151565000606</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1000357921032349</v>
+        <v>0.03991151890015977</v>
       </c>
       <c r="D87" t="n">
-        <v>0.004477814085182211</v>
+        <v>0.002729663849314799</v>
       </c>
       <c r="E87" t="n">
-        <v>0.07645344792125108</v>
+        <v>0.00406020250091589</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>lenary</t>
+          <t>junlarsen</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.05794627770211652</v>
+        <v>0.1477578348900112</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1529089119770635</v>
+        <v>0.02417352810088228</v>
       </c>
       <c r="D88" t="n">
-        <v>0.007799777445406306</v>
+        <v>0.002332012373449136</v>
       </c>
       <c r="E88" t="n">
-        <v>0.07640576793325857</v>
+        <v>0.004038230648529038</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ian-twilightcoder</t>
+          <t>kazutakahirata</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1425537826915973</v>
+        <v>0.4324493135327011</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01502938544694161</v>
+        <v>0.00546136779399916</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0008555853885959611</v>
+        <v>0.008059615601788264</v>
       </c>
       <c r="E89" t="n">
-        <v>0.07595682405760031</v>
+        <v>0.003973687873822192</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DKLoehr</t>
+          <t>Zhenhang1213</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1455141096103448</v>
+        <v>0.07061466433213426</v>
       </c>
       <c r="C90" t="n">
-        <v>0.005105690614847307</v>
+        <v>0.04552143449208901</v>
       </c>
       <c r="D90" t="n">
-        <v>0.00268492445127961</v>
+        <v>0.003567082314596711</v>
       </c>
       <c r="E90" t="n">
-        <v>0.07482574687988253</v>
+        <v>0.003927897279495447</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>usx95</t>
+          <t>hstk30-hw</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1328668188935953</v>
+        <v>0.1391393084684307</v>
       </c>
       <c r="C91" t="n">
-        <v>0.02515314493639541</v>
+        <v>0.02289067775105147</v>
       </c>
       <c r="D91" t="n">
-        <v>0.002037297903284011</v>
+        <v>0.003708239039446616</v>
       </c>
       <c r="E91" t="n">
-        <v>0.07438681250837306</v>
+        <v>0.003926640880544318</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Vipul-Cariappa</t>
+          <t>SixWeining</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1475602129367469</v>
+        <v>0.08846362387127502</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>0.03897090467384549</v>
       </c>
       <c r="D92" t="n">
-        <v>0.001332373007819214</v>
+        <v>0.001967096081262347</v>
       </c>
       <c r="E92" t="n">
-        <v>0.07404658106993728</v>
+        <v>0.003840926669242851</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>metkarpoonam</t>
+          <t>phoebewang</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.1318847396285035</v>
+        <v>0.1260736559406738</v>
       </c>
       <c r="C93" t="n">
-        <v>0.02594026790865981</v>
+        <v>0.02023868365655803</v>
       </c>
       <c r="D93" t="n">
-        <v>0.001144184542642087</v>
+        <v>0.006088767204167271</v>
       </c>
       <c r="E93" t="n">
-        <v>0.07395328709537809</v>
+        <v>0.003769318280842488</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>kuilpd</t>
+          <t>aheejin</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1472383595303939</v>
+        <v>0.1061449637067026</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>0.0297619467558582</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0009667683910449317</v>
+        <v>0.00249420495486803</v>
       </c>
       <c r="E94" t="n">
-        <v>0.07381253344340594</v>
+        <v>0.003657921749214991</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>dwblaikie</t>
+          <t>frederick-vs-ja</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1257314852017348</v>
+        <v>0.1162343917747111</v>
       </c>
       <c r="C95" t="n">
-        <v>0.03263079674160414</v>
+        <v>0.02734748301047834</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002668927575593928</v>
+        <v>0.002229696050009108</v>
       </c>
       <c r="E95" t="n">
-        <v>0.07318876713846743</v>
+        <v>0.003624657264294017</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>jvoung</t>
+          <t>statham-arm</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.1121450667409893</v>
+        <v>0.07187325304287044</v>
       </c>
       <c r="C96" t="n">
-        <v>0.05442193196874986</v>
+        <v>0.04044793191924589</v>
       </c>
       <c r="D96" t="n">
-        <v>0.003488702553644707</v>
+        <v>0.003567082314596711</v>
       </c>
       <c r="E96" t="n">
-        <v>0.07309685347184855</v>
+        <v>0.003620540908812098</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Michael137</t>
+          <t>tstellar</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1434928631732442</v>
+        <v>0.05268413054945918</v>
       </c>
       <c r="C97" t="n">
-        <v>0.002085202745661344</v>
+        <v>0.04806783934704716</v>
       </c>
       <c r="D97" t="n">
-        <v>0.002172763821352284</v>
+        <v>0.005182052029451914</v>
       </c>
       <c r="E97" t="n">
-        <v>0.07280654517459094</v>
+        <v>0.003568822729280646</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>sdesmalen-arm</t>
+          <t>anhtuyenibm</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.1388226496569109</v>
+        <v>0.0907846099149404</v>
       </c>
       <c r="C98" t="n">
-        <v>0.009273982947435847</v>
+        <v>0.03018868529915098</v>
       </c>
       <c r="D98" t="n">
-        <v>0.001200464588333627</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E98" t="n">
-        <v>0.07243361263035293</v>
+        <v>0.003378423120769134</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>phoebewang</t>
+          <t>davemgreen</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.1260736559406738</v>
+        <v>0.09836939942613157</v>
       </c>
       <c r="C99" t="n">
-        <v>0.02703478250198335</v>
+        <v>0.02654422848414613</v>
       </c>
       <c r="D99" t="n">
-        <v>0.006088767204167271</v>
+        <v>0.003808013474297667</v>
       </c>
       <c r="E99" t="n">
-        <v>0.07236501616176534</v>
+        <v>0.003372742509075002</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>kito-cheng</t>
+          <t>usx95</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.1286534861332245</v>
+        <v>0.1328668188935953</v>
       </c>
       <c r="C100" t="n">
-        <v>0.02434676770054039</v>
+        <v>0.02212738771348398</v>
       </c>
       <c r="D100" t="n">
-        <v>0.002546519278111376</v>
+        <v>0.002037297903284011</v>
       </c>
       <c r="E100" t="n">
-        <v>0.07214007723239665</v>
+        <v>0.003347455196572644</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>sjoerdmeijer</t>
+          <t>ricejasonf</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1266637219048866</v>
+        <v>0.08743343064185327</v>
       </c>
       <c r="C101" t="n">
-        <v>0.02183369563553553</v>
+        <v>0.03297185790385078</v>
       </c>
       <c r="D101" t="n">
-        <v>0.003366076321653605</v>
+        <v>0.002278795044715166</v>
       </c>
       <c r="E101" t="n">
-        <v>0.07055518490743468</v>
+        <v>0.003338601660112412</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>vitalybuka</t>
+          <t>benlangmuir</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1252294610232279</v>
+        <v>0.06209955114036206</v>
       </c>
       <c r="C102" t="n">
-        <v>0.02482004969091983</v>
+        <v>0.04129305529556276</v>
       </c>
       <c r="D102" t="n">
-        <v>0.001843327993653571</v>
+        <v>0.003748145782630228</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0704294110176206</v>
+        <v>0.003313909355594643</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ymand</t>
+          <t>petrhosek</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.1146103694708965</v>
+        <v>0.09525639142372444</v>
       </c>
       <c r="C103" t="n">
-        <v>0.04118215007563165</v>
+        <v>0.02526911892031982</v>
       </c>
       <c r="D103" t="n">
-        <v>0.001568318291703276</v>
+        <v>0.00381252680552452</v>
       </c>
       <c r="E103" t="n">
-        <v>0.06997349341647838</v>
+        <v>0.00316955044391153</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>jodelek</t>
+          <t>Megan0704-1</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1359141369247779</v>
+        <v>0.1238467686754673</v>
       </c>
       <c r="C104" t="n">
-        <v>0.00570779409560331</v>
+        <v>0.02381899712814927</v>
       </c>
       <c r="D104" t="n">
-        <v>0.00109299401575228</v>
+        <v>0.0008819808856936483</v>
       </c>
       <c r="E104" t="n">
-        <v>0.06988800549422039</v>
+        <v>0.003126302004550253</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>wzssyqa</t>
+          <t>ymand</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1391569596241288</v>
+        <v>0.1146103694708965</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>0.024257760944775</v>
       </c>
       <c r="D105" t="n">
-        <v>0.001065836599958524</v>
+        <v>0.001568318291703276</v>
       </c>
       <c r="E105" t="n">
-        <v>0.06979164713205609</v>
+        <v>0.003093854602758001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>kasuga-fj</t>
+          <t>AlexMaclean</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.133180611146909</v>
+        <v>0.03700672488313713</v>
       </c>
       <c r="C106" t="n">
-        <v>0.006614564128468889</v>
+        <v>0.07070461680098702</v>
       </c>
       <c r="D106" t="n">
-        <v>0.001674729559326635</v>
+        <v>0.002334053306173014</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0689096207238605</v>
+        <v>0.003083356963156365</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>rnk</t>
+          <t>s-perron</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.08263718191917023</v>
+        <v>0.08083773126487352</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08747265971497634</v>
+        <v>0.03632755652387742</v>
       </c>
       <c r="D107" t="n">
-        <v>0.004603583953196959</v>
+        <v>0.0006539092464193154</v>
       </c>
       <c r="E107" t="n">
-        <v>0.06848110566471741</v>
+        <v>0.003067419101070569</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DataCorrupted</t>
+          <t>qiongsiwu</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1317063928716997</v>
+        <v>0.05870612014310075</v>
       </c>
       <c r="C108" t="n">
-        <v>0.005137116289461263</v>
+        <v>0.03646742640011826</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0009096339925847448</v>
+        <v>0.004136143936144622</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0675762581212052</v>
+        <v>0.002968089902783951</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>frederick-vs-ja</t>
+          <t>DavidSpickett</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.1162343917747111</v>
+        <v>0.1582683807608933</v>
       </c>
       <c r="C109" t="n">
-        <v>0.02821788185818049</v>
+        <v>0.01248271403433859</v>
       </c>
       <c r="D109" t="n">
-        <v>0.002229696050009108</v>
+        <v>0.004910581987273384</v>
       </c>
       <c r="E109" t="n">
-        <v>0.06702849965481152</v>
+        <v>0.002957735335170724</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>RKSimon</t>
+          <t>dwblaikie</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.1186907953559896</v>
+        <v>0.1257314852017348</v>
       </c>
       <c r="C110" t="n">
-        <v>0.02358424382785971</v>
+        <v>0.01922070764497925</v>
       </c>
       <c r="D110" t="n">
-        <v>0.002570870669353501</v>
+        <v>0.002668927575593928</v>
       </c>
       <c r="E110" t="n">
-        <v>0.06693484496022339</v>
+        <v>0.002950433633950365</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>schittir</t>
+          <t>rj-jesus</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.1313050307653336</v>
+        <v>0.01950380504842525</v>
       </c>
       <c r="C111" t="n">
-        <v>0.002737501077628377</v>
+        <v>0.1225692513938045</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0009492913155528283</v>
+        <v>0.002718705323480018</v>
       </c>
       <c r="E111" t="n">
-        <v>0.06666362396906589</v>
+        <v>0.002934307848812192</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>compnerd</t>
+          <t>michalpaszkowski</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.1280158641771457</v>
+        <v>0.08300398313757404</v>
       </c>
       <c r="C112" t="n">
-        <v>0.007562890485552712</v>
+        <v>0.02725264391407084</v>
       </c>
       <c r="D112" t="n">
-        <v>0.001915396990848394</v>
+        <v>0.0032798312115986</v>
       </c>
       <c r="E112" t="n">
-        <v>0.06665987863240833</v>
+        <v>0.002918044238217566</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Megan0704-1</t>
+          <t>alsepkow</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.1238467686754673</v>
+        <v>0.1061456773155676</v>
       </c>
       <c r="C113" t="n">
-        <v>0.01347908842611416</v>
+        <v>0.02389052014325625</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0008819808856936483</v>
+        <v>0.001663514564312104</v>
       </c>
       <c r="E113" t="n">
-        <v>0.06614350704270665</v>
+        <v>0.002868578354889566</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>AmrDeveloper</t>
+          <t>vitalybuka</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.0795320453135312</v>
+        <v>0.1252294610232279</v>
       </c>
       <c r="C114" t="n">
-        <v>0.08270326703146536</v>
+        <v>0.01902225642848199</v>
       </c>
       <c r="D114" t="n">
-        <v>0.003214949829609029</v>
+        <v>0.001843327993653571</v>
       </c>
       <c r="E114" t="n">
-        <v>0.06521999273212702</v>
+        <v>0.002750812518715146</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>nickdesaulniers</t>
+          <t>T-Gruber</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.1274293459455501</v>
+        <v>0.07367678614985719</v>
       </c>
       <c r="C115" t="n">
-        <v>0.002095097071079613</v>
+        <v>0.0346553059417209</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0009585436083058311</v>
+        <v>0.0009675590512030641</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0645349108157601</v>
+        <v>0.002746803375066659</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>boomanaiden154</t>
+          <t>gamesh411</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.128494978701473</v>
+        <v>0.08406755037426263</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>0.0264892475484838</v>
       </c>
       <c r="D116" t="n">
-        <v>0.000816890192492868</v>
+        <v>0.00225337468284432</v>
       </c>
       <c r="E116" t="n">
-        <v>0.06441086738923506</v>
+        <v>0.002677561089227338</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>brad0</t>
+          <t>RKSimon</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.1225084935462681</v>
+        <v>0.1186907953559896</v>
       </c>
       <c r="C117" t="n">
-        <v>0.00648942332085947</v>
+        <v>0.01819133007267451</v>
       </c>
       <c r="D117" t="n">
-        <v>0.004254149765358149</v>
+        <v>0.002570870669353501</v>
       </c>
       <c r="E117" t="n">
-        <v>0.06405190372246354</v>
+        <v>0.002673317568779769</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>isuckatcs</t>
+          <t>hjyamauchi</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.1115917987889978</v>
+        <v>0.1844658982413747</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0260916498066491</v>
+        <v>0.01343694453152354</v>
       </c>
       <c r="D118" t="n">
-        <v>0.001873069447142157</v>
+        <v>0.0008555853885959611</v>
       </c>
       <c r="E118" t="n">
-        <v>0.06399800822592205</v>
+        <v>0.002649775120346209</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>vikramRH</t>
+          <t>EugeneZelenko</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.1156987227016621</v>
+        <v>0.1115917987889978</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01741038709294492</v>
+        <v>0.0199512767639029</v>
       </c>
       <c r="D119" t="n">
-        <v>0.001852103937092333</v>
+        <v>0.001873069447142157</v>
       </c>
       <c r="E119" t="n">
-        <v>0.06344289826613299</v>
+        <v>0.002601012751649491</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>tahonermann</t>
+          <t>VladiKrapp-Arm</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.1002305692239645</v>
+        <v>0.07230797794924562</v>
       </c>
       <c r="C120" t="n">
-        <v>0.04098789825122949</v>
+        <v>0.03029082974400298</v>
       </c>
       <c r="D120" t="n">
-        <v>0.001259173649342877</v>
+        <v>0.001984270086426901</v>
       </c>
       <c r="E120" t="n">
-        <v>0.06266348881721966</v>
+        <v>0.002587122666479101</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>madhur13490</t>
+          <t>alanzhao1</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.1157876941868249</v>
+        <v>0.02181036231283233</v>
       </c>
       <c r="C121" t="n">
-        <v>0.01169700154736381</v>
+        <v>0.1041032232578748</v>
       </c>
       <c r="D121" t="n">
-        <v>0.003420456673860558</v>
+        <v>0.001531415362113005</v>
       </c>
       <c r="E121" t="n">
-        <v>0.06208703889239371</v>
+        <v>0.002576812089610524</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ddpagan</t>
+          <t>jyknight</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.1230300256505107</v>
+        <v>0.1476858907277708</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>0.01502534545620255</v>
       </c>
       <c r="D122" t="n">
-        <v>0.002802015906767045</v>
+        <v>0.001749242502549851</v>
       </c>
       <c r="E122" t="n">
-        <v>0.06207541600660876</v>
+        <v>0.002568880027701708</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>alsepkow</t>
+          <t>aeubanks</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.1061456773155676</v>
+        <v>0.02488488549099876</v>
       </c>
       <c r="C123" t="n">
-        <v>0.02711936627613837</v>
+        <v>0.08495231005166747</v>
       </c>
       <c r="D123" t="n">
-        <v>0.001663514564312104</v>
+        <v>0.002024856533005544</v>
       </c>
       <c r="E123" t="n">
-        <v>0.06154135145348773</v>
+        <v>0.002518999814432676</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>NewSigma</t>
+          <t>ilovepi</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.1221694990750238</v>
+        <v>0.03025742355579874</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>0.06002396124158788</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0006752341214501989</v>
+        <v>0.003427868081794542</v>
       </c>
       <c r="E124" t="n">
-        <v>0.06121979636180194</v>
+        <v>0.00250174403514248</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>tarunprabhu</t>
+          <t>malavikasamak</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.05721767031497422</v>
+        <v>0.1534730088367179</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1021169079623436</v>
+        <v>0.01395808934260723</v>
       </c>
       <c r="D125" t="n">
-        <v>0.00546374124604397</v>
+        <v>0.001589853581534807</v>
       </c>
       <c r="E125" t="n">
-        <v>0.06033665579539897</v>
+        <v>0.002460160685328619</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>lizhengxing</t>
+          <t>jroelofs</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.1126286789996641</v>
+        <v>0.09293846220721617</v>
       </c>
       <c r="C126" t="n">
-        <v>0.01263619335669744</v>
+        <v>0.01287703491553883</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0008132211067518072</v>
+        <v>0.006156438273251432</v>
       </c>
       <c r="E126" t="n">
-        <v>0.06026784172819166</v>
+        <v>0.002428059477489095</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>mylai-mtk</t>
+          <t>PiotrZSL</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.1192856075893167</v>
+        <v>0.1029636686182472</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>0.01787399935343884</v>
       </c>
       <c r="D127" t="n">
-        <v>0.001498840681116527</v>
+        <v>0.00290109369156818</v>
       </c>
       <c r="E127" t="n">
-        <v>0.05994257193088165</v>
+        <v>0.002420591284623878</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>EugeneZelenko</t>
+          <t>rampitec</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.1115917987889978</v>
+        <v>0.08911722444231121</v>
       </c>
       <c r="C128" t="n">
-        <v>0.01129035879502704</v>
+        <v>0.02151353883224663</v>
       </c>
       <c r="D128" t="n">
-        <v>0.001873069447142157</v>
+        <v>0.002283709851727989</v>
       </c>
       <c r="E128" t="n">
-        <v>0.05955762092243545</v>
+        <v>0.002373968839007299</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>davemgreen</t>
+          <t>kito-cheng</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.09836939942613157</v>
+        <v>0.1286534861332245</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0320374200960696</v>
+        <v>0.01434111792543701</v>
       </c>
       <c r="D129" t="n">
-        <v>0.003808013474297667</v>
+        <v>0.002546519278111376</v>
       </c>
       <c r="E129" t="n">
-        <v>0.05955752843674619</v>
+        <v>0.002354338671777424</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>nico</t>
+          <t>kadircet</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.1182088297726389</v>
+        <v>0.2038569638300421</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>0.008928583426258319</v>
       </c>
       <c r="D130" t="n">
-        <v>0.002013732133327161</v>
+        <v>0.002616668878589588</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0595071613129849</v>
+        <v>0.002343487684298174</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>petrhosek</t>
+          <t>balazske</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.09525639142372444</v>
+        <v>0.04802967882011332</v>
       </c>
       <c r="C131" t="n">
-        <v>0.03608518251356588</v>
+        <v>0.040192993081279</v>
       </c>
       <c r="D131" t="n">
-        <v>0.00381252680552452</v>
+        <v>0.00167482468924339</v>
       </c>
       <c r="E131" t="n">
-        <v>0.05921625582703689</v>
+        <v>0.002265421486361545</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sharjeel-Khan</t>
+          <t>cyndyishida</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.1156987227016621</v>
+        <v>0.06768254878526148</v>
       </c>
       <c r="C132" t="n">
-        <v>0.002517655929705842</v>
+        <v>0.02443322393454964</v>
       </c>
       <c r="D132" t="n">
-        <v>0.001265463271443496</v>
+        <v>0.003015518718021384</v>
       </c>
       <c r="E132" t="n">
-        <v>0.05885775078403151</v>
+        <v>0.002256806614535651</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>aheejin</t>
+          <t>brad0</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.1061449637067026</v>
+        <v>0.1225084935462681</v>
       </c>
       <c r="C133" t="n">
-        <v>0.01684218314890425</v>
+        <v>0.01146750808040047</v>
       </c>
       <c r="D133" t="n">
-        <v>0.00249420495486803</v>
+        <v>0.004254149765358149</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0586239777889962</v>
+        <v>0.002255697092731148</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>chandlerc</t>
+          <t>Lukacma</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.1165588755948182</v>
+        <v>0.07041071621752833</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>0.02279166217748565</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0009320263181005093</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E134" t="n">
-        <v>0.05846584306102919</v>
+        <v>0.002242532359745532</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ojhunt</t>
+          <t>JDPailleux</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.1099551909797403</v>
+        <v>0.05139429491782253</v>
       </c>
       <c r="C135" t="n">
-        <v>0.009316465362173671</v>
+        <v>0.03540841080674837</v>
       </c>
       <c r="D135" t="n">
-        <v>0.001291555295586608</v>
+        <v>0.001937817303740644</v>
       </c>
       <c r="E135" t="n">
-        <v>0.05803084615763957</v>
+        <v>0.002207353768321569</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>mpark</t>
+          <t>madhur13490</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.1143987683575149</v>
+        <v>0.1157876941868249</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>0.01305427941519061</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0009794266631223726</v>
+        <v>0.003420456673860558</v>
       </c>
       <c r="E136" t="n">
-        <v>0.05739526951138194</v>
+        <v>0.002195616247527565</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PiotrZSL</t>
+          <t>mikaelholmen</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.1029636686182472</v>
+        <v>0.1763380019192584</v>
       </c>
       <c r="C137" t="n">
-        <v>0.01641904155420093</v>
+        <v>0.01078572854215944</v>
       </c>
       <c r="D137" t="n">
-        <v>0.00290109369156818</v>
+        <v>0.001403388304559038</v>
       </c>
       <c r="E137" t="n">
-        <v>0.05698776551369753</v>
+        <v>0.00218261148127972</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>jansvoboda11</t>
+          <t>MacDue</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.0616572221611985</v>
+        <v>0.07955464632462021</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0816147904823724</v>
+        <v>0.01961992943088767</v>
       </c>
       <c r="D138" t="n">
-        <v>0.006628329322199917</v>
+        <v>0.003023888782584405</v>
       </c>
       <c r="E138" t="n">
-        <v>0.05663871408975095</v>
+        <v>0.002165634303305157</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Prabhuk</t>
+          <t>bgra8</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.1125060303371958</v>
+        <v>0.1554316434745599</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>0.00963670167071669</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0009130987393679646</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E139" t="n">
-        <v>0.05643563491647151</v>
+        <v>0.002135603480394349</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Ami-zhang</t>
+          <t>ojhunt</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.08846362387127502</v>
+        <v>0.1099551909797403</v>
       </c>
       <c r="C140" t="n">
-        <v>0.03813829469873606</v>
+        <v>0.01646319503893114</v>
       </c>
       <c r="D140" t="n">
-        <v>0.001967096081262347</v>
+        <v>0.001291555295586608</v>
       </c>
       <c r="E140" t="n">
-        <v>0.05606671956151079</v>
+        <v>0.002068524813759708</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>benshi001</t>
+          <t>rjmansfield</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.1084293928990089</v>
+        <v>0.1841465904902639</v>
       </c>
       <c r="C141" t="n">
-        <v>0.004292633542606791</v>
+        <v>0.009732113986407312</v>
       </c>
       <c r="D141" t="n">
-        <v>0.002726191067391514</v>
+        <v>0.001255583903481999</v>
       </c>
       <c r="E141" t="n">
-        <v>0.05604772472576477</v>
+        <v>0.002043252389555917</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>JonChesterfield</t>
+          <t>ellishg</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.1110393942353362</v>
+        <v>0.05266421469955668</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>0.03014059414512407</v>
       </c>
       <c r="D142" t="n">
-        <v>0.001507934462801291</v>
+        <v>0.002135933724002798</v>
       </c>
       <c r="E142" t="n">
-        <v>0.05582128401022837</v>
+        <v>0.002014517466031574</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>rampitec</t>
+          <t>jrtc27</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.08911722444231121</v>
+        <v>0.07813191901370298</v>
       </c>
       <c r="C143" t="n">
-        <v>0.03138468696928016</v>
+        <v>0.01362503060328511</v>
       </c>
       <c r="D143" t="n">
-        <v>0.002283709851727989</v>
+        <v>0.004546463979562129</v>
       </c>
       <c r="E143" t="n">
-        <v>0.05443076028228525</v>
+        <v>0.001973842583567522</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>jroelofs</t>
+          <t>balazs-benics-sonarsource</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.09293846220721617</v>
+        <v>0.05100924703692784</v>
       </c>
       <c r="C144" t="n">
-        <v>0.02186120910450698</v>
+        <v>0.03154189621583867</v>
       </c>
       <c r="D144" t="n">
-        <v>0.006156438273251432</v>
+        <v>0.001698868903251731</v>
       </c>
       <c r="E144" t="n">
-        <v>0.05425888148961047</v>
+        <v>0.0019487021567372</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PiJoules</t>
+          <t>vikramRH</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.1035944528711995</v>
+        <v>0.1156987227016621</v>
       </c>
       <c r="C145" t="n">
-        <v>0.006027130222178751</v>
+        <v>0.01321784835749256</v>
       </c>
       <c r="D145" t="n">
-        <v>0.002892364729379586</v>
+        <v>0.001852103937092333</v>
       </c>
       <c r="E145" t="n">
-        <v>0.05418383844812927</v>
+        <v>0.001899708959244618</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>bfavela</t>
+          <t>Nerixyz</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.1047193131246871</v>
+        <v>0.09978034565826419</v>
       </c>
       <c r="C146" t="n">
-        <v>0.00497589133100752</v>
+        <v>0.01719564371236637</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0006491868473111851</v>
+        <v>0.0007148670939525523</v>
       </c>
       <c r="E146" t="n">
-        <v>0.05398226133110803</v>
+        <v>0.001858760692226784</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SixWeining</t>
+          <t>DKLoehr</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.08846362387127502</v>
+        <v>0.1455141096103448</v>
       </c>
       <c r="C147" t="n">
-        <v>0.03066787513758736</v>
+        <v>0.009022303752875216</v>
       </c>
       <c r="D147" t="n">
-        <v>0.001967096081262347</v>
+        <v>0.00268492445127961</v>
       </c>
       <c r="E147" t="n">
-        <v>0.05382559369316618</v>
+        <v>0.001849857387489631</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>smithp35</t>
+          <t>inaki-amatria</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.07526940045658398</v>
+        <v>0.04818295132226201</v>
       </c>
       <c r="C148" t="n">
-        <v>0.05067933191496565</v>
+        <v>0.0313559469451457</v>
       </c>
       <c r="D148" t="n">
-        <v>0.004660197984099385</v>
+        <v>0.001639641270682024</v>
       </c>
       <c r="E148" t="n">
-        <v>0.05377053939960156</v>
+        <v>0.00183875031945779</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>anhtuyenibm</t>
+          <t>BaLiKfromUA</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.0907846099149404</v>
+        <v>0.08134999613302352</v>
       </c>
       <c r="C149" t="n">
-        <v>0.02401876481256992</v>
+        <v>0.0203586079399181</v>
       </c>
       <c r="D149" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.0009019444184358979</v>
       </c>
       <c r="E149" t="n">
-        <v>0.053235689503282</v>
+        <v>0.001836561560873259</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>gamesh411</t>
+          <t>ziqingluo-90</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.08406755037426263</v>
+        <v>0.1828518673417112</v>
       </c>
       <c r="C150" t="n">
-        <v>0.03542762341381695</v>
+        <v>0.007564839609601031</v>
       </c>
       <c r="D150" t="n">
-        <v>0.00225337468284432</v>
+        <v>0.002243110603708977</v>
       </c>
       <c r="E150" t="n">
-        <v>0.05311273714784526</v>
+        <v>0.001831867169497885</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>michalpaszkowski</t>
+          <t>uweigand</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.08300398313757404</v>
+        <v>0.07235119433364727</v>
       </c>
       <c r="C151" t="n">
-        <v>0.03619034489128506</v>
+        <v>0.01587522169864386</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0032798312115986</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E151" t="n">
-        <v>0.05301506127849226</v>
+        <v>0.001786346352249132</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Nerixyz</t>
+          <t>mjklemm</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.09978034565826419</v>
+        <v>0.154865614719354</v>
       </c>
       <c r="C152" t="n">
-        <v>0.009730955543422985</v>
+        <v>0.009300128643551267</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0007148670939525523</v>
+        <v>0.001718218766371494</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0529524329109495</v>
+        <v>0.001783913892626938</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>yronglin</t>
+          <t>arichardson</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.1034322620306884</v>
+        <v>0.07841334512886348</v>
       </c>
       <c r="C153" t="n">
-        <v>0.002924116103141598</v>
+        <v>0.01728332745903224</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0007248132698409711</v>
+        <v>0.002074411506517015</v>
       </c>
       <c r="E153" t="n">
-        <v>0.05273832850025486</v>
+        <v>0.001770125822323661</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ampandey-1995</t>
+          <t>durga4github</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.08805151565000606</v>
+        <v>0.0829270546935431</v>
       </c>
       <c r="C154" t="n">
-        <v>0.02691866252789168</v>
+        <v>0.01791604821654512</v>
       </c>
       <c r="D154" t="n">
-        <v>0.002729663849314799</v>
+        <v>0.001366371576844934</v>
       </c>
       <c r="E154" t="n">
-        <v>0.05264728935323349</v>
+        <v>0.001758999425714579</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ficol</t>
+          <t>HaohaiWen</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.1023435108954407</v>
+        <v>0.08199917898884314</v>
       </c>
       <c r="C155" t="n">
-        <v>0.004041327707908345</v>
+        <v>0.01735256531025519</v>
       </c>
       <c r="D155" t="n">
-        <v>0.001096711502920269</v>
+        <v>0.001665600197842467</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0526034960606769</v>
+        <v>0.001756016148359699</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>sakria9</t>
+          <t>w2yehia</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.1019753379697541</v>
+        <v>0.0907846099149404</v>
       </c>
       <c r="C156" t="n">
-        <v>0.002281797051210511</v>
+        <v>0.01206693778455855</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0006751556873061794</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E156" t="n">
-        <v>0.05180723923770142</v>
+        <v>0.001733247341679819</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>inbelic</t>
+          <t>paulwalker-arm</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.1013441398545013</v>
+        <v>0.01670199967895392</v>
       </c>
       <c r="C157" t="n">
-        <v>0.002846901072706549</v>
+        <v>0.06888951713569431</v>
       </c>
       <c r="D157" t="n">
-        <v>0.001317032872004269</v>
+        <v>0.002718705323480018</v>
       </c>
       <c r="E157" t="n">
-        <v>0.05178954682346346</v>
+        <v>0.001694333757779661</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Discookie</t>
+          <t>PiJoules</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.09917770357439425</v>
+        <v>0.1035944528711995</v>
       </c>
       <c r="C158" t="n">
-        <v>0.004939687388111838</v>
+        <v>0.01065058651703228</v>
       </c>
       <c r="D158" t="n">
-        <v>0.001144690199797991</v>
+        <v>0.002892364729379586</v>
       </c>
       <c r="E158" t="n">
-        <v>0.05129969604359027</v>
+        <v>0.00168181462886525</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ilya-biryukov</t>
+          <t>asudarsa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.09806303859868236</v>
+        <v>0.06020159818340011</v>
       </c>
       <c r="C159" t="n">
-        <v>0.006429305329725087</v>
+        <v>0.01874052824580989</v>
       </c>
       <c r="D159" t="n">
-        <v>0.0009112445682586748</v>
+        <v>0.002621718926265595</v>
       </c>
       <c r="E159" t="n">
-        <v>0.05114255981191044</v>
+        <v>0.001652553536452026</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>statham-arm</t>
+          <t>kiranchandramohan</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.07187325304287044</v>
+        <v>0.05139429491782253</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0452733226876183</v>
+        <v>0.02416404744905679</v>
       </c>
       <c r="D160" t="n">
-        <v>0.003567082314596711</v>
+        <v>0.001937817303740644</v>
       </c>
       <c r="E160" t="n">
-        <v>0.05023203979064005</v>
+        <v>0.00162945764175321</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ricejasonf</t>
+          <t>amy-kwan</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.08743343064185327</v>
+        <v>0.06734923683690973</v>
       </c>
       <c r="C161" t="n">
-        <v>0.01865866081045235</v>
+        <v>0.01014382519474526</v>
       </c>
       <c r="D161" t="n">
-        <v>0.002278795044715166</v>
+        <v>0.004638771357185677</v>
       </c>
       <c r="E161" t="n">
-        <v>0.04977007257300537</v>
+        <v>0.001610933156910246</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>dyung</t>
+          <t>jodelek</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.09766163083504324</v>
+        <v>0.1359141369247779</v>
       </c>
       <c r="C162" t="n">
-        <v>0.002478900623020919</v>
+        <v>0.01008628527934038</v>
       </c>
       <c r="D162" t="n">
-        <v>0.0007837575740015734</v>
+        <v>0.00109299401575228</v>
       </c>
       <c r="E162" t="n">
-        <v>0.04973123711922822</v>
+        <v>0.001589467561669097</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>bwendling</t>
+          <t>iajbar</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.09912388296049882</v>
+        <v>0.08368420447891231</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>0.01109190829014908</v>
       </c>
       <c r="D163" t="n">
-        <v>0.000816890192492868</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E163" t="n">
-        <v>0.04972531951874798</v>
+        <v>0.001565972623454994</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>AZero13</t>
+          <t>ssahasra</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.09235864767603075</v>
+        <v>0.05437255994968408</v>
       </c>
       <c r="C164" t="n">
-        <v>0.007656439451742258</v>
+        <v>0.02203380963910858</v>
       </c>
       <c r="D164" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.001813510613499094</v>
       </c>
       <c r="E164" t="n">
-        <v>0.04911401077557887</v>
+        <v>0.001560736758222177</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>benlangmuir</t>
+          <t>kkwli</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.06209955114036206</v>
+        <v>0.04723625932843069</v>
       </c>
       <c r="C165" t="n">
-        <v>0.05752394436778054</v>
+        <v>0.01736866404003755</v>
       </c>
       <c r="D165" t="n">
-        <v>0.003748145782630228</v>
+        <v>0.00367252145206665</v>
       </c>
       <c r="E165" t="n">
-        <v>0.04905658803704124</v>
+        <v>0.001554935009196933</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>necto</t>
+          <t>teresajohnson</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.05997303583506156</v>
+        <v>0.05308112980657042</v>
       </c>
       <c r="C166" t="n">
-        <v>0.06166444464746932</v>
+        <v>0.02338508072383879</v>
       </c>
       <c r="D166" t="n">
-        <v>0.002465236298210707</v>
+        <v>0.001386125575019782</v>
       </c>
       <c r="E166" t="n">
-        <v>0.04897889857141372</v>
+        <v>0.001518531620443171</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>svs-quic</t>
+          <t>dtarditi</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.03971264048416689</v>
+        <v>0.04676017555923023</v>
       </c>
       <c r="C167" t="n">
-        <v>0.09212026810652785</v>
+        <v>0.02099108621352627</v>
       </c>
       <c r="D167" t="n">
-        <v>0.003298347273707773</v>
+        <v>0.002538574411530281</v>
       </c>
       <c r="E167" t="n">
-        <v>0.04815207012878335</v>
+        <v>0.001489261758829482</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>iajbar</t>
+          <t>ian-twilightcoder</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.08368420447891231</v>
+        <v>0.1425537826915973</v>
       </c>
       <c r="C168" t="n">
-        <v>0.01883061808012632</v>
+        <v>0.00885284616391409</v>
       </c>
       <c r="D168" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.0008555853885959611</v>
       </c>
       <c r="E168" t="n">
-        <v>0.04812904276553487</v>
+        <v>0.001433123785971942</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>w2yehia</t>
+          <t>jmorse</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.0907846099149404</v>
+        <v>0.0332214833678821</v>
       </c>
       <c r="C169" t="n">
-        <v>0.006828638525601971</v>
+        <v>0.01834955622201168</v>
       </c>
       <c r="D169" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.003965850435598483</v>
       </c>
       <c r="E169" t="n">
-        <v>0.04807865161719161</v>
+        <v>0.001402769563957275</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>kovdan01</t>
+          <t>DataCorrupted</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.09121701325466985</v>
+        <v>0.1317063928716997</v>
       </c>
       <c r="C170" t="n">
-        <v>0.00745008963976192</v>
+        <v>0.009077836295560358</v>
       </c>
       <c r="D170" t="n">
-        <v>0.0004783163265306123</v>
+        <v>0.0009096339925847448</v>
       </c>
       <c r="E170" t="n">
-        <v>0.04793919678456962</v>
+        <v>0.001377535872084997</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>4vtomat</t>
+          <t>benshi001</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.09518724771071306</v>
+        <v>0.1084293928990089</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>0.007585544570318142</v>
       </c>
       <c r="D171" t="n">
-        <v>0.001019469625215107</v>
+        <v>0.002726191067391514</v>
       </c>
       <c r="E171" t="n">
-        <v>0.04779751778039955</v>
+        <v>0.001367734206046272</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ronlieb</t>
+          <t>OCHyams</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.09039199983681533</v>
+        <v>0.03566357771218893</v>
       </c>
       <c r="C172" t="n">
-        <v>0.007497336497203448</v>
+        <v>0.01863946931325256</v>
       </c>
       <c r="D172" t="n">
-        <v>0.0008613517173092837</v>
+        <v>0.003385780363102397</v>
       </c>
       <c r="E172" t="n">
-        <v>0.04761747121103056</v>
+        <v>0.001341906234987623</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>zixu-w</t>
+          <t>antangelo</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.08983300918874257</v>
+        <v>0.1534626721795175</v>
       </c>
       <c r="C173" t="n">
-        <v>0.006526217530738207</v>
+        <v>0.007101949380227969</v>
       </c>
       <c r="D173" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.0011528257657607</v>
       </c>
       <c r="E173" t="n">
-        <v>0.04751212495563356</v>
+        <v>0.001320449282725592</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ahatanak</t>
+          <t>adrian-prantl</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.09235864767603075</v>
+        <v>0.06584445174414952</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>0.01205296406444264</v>
       </c>
       <c r="D174" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.002454321476162375</v>
       </c>
       <c r="E174" t="n">
-        <v>0.04681707894005619</v>
+        <v>0.001284485105947637</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Flandini</t>
+          <t>goldsteinn</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.07276814022141645</v>
+        <v>0.01102633137873564</v>
       </c>
       <c r="C175" t="n">
-        <v>0.03352180351621373</v>
+        <v>0.09742394108381457</v>
       </c>
       <c r="D175" t="n">
-        <v>0.001699547557237609</v>
+        <v>0.0009820656062024145</v>
       </c>
       <c r="E175" t="n">
-        <v>0.04678052067701986</v>
+        <v>0.00127064177985304</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>alexander-shaposhnikov</t>
+          <t>tru</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.08937011487567909</v>
+        <v>0.03728007962830633</v>
       </c>
       <c r="C176" t="n">
-        <v>0.005820464093335181</v>
+        <v>0.0246277622706925</v>
       </c>
       <c r="D176" t="n">
-        <v>0.001665600197842467</v>
+        <v>0.001737756296572884</v>
       </c>
       <c r="E176" t="n">
-        <v>0.04676431670540859</v>
+        <v>0.001265676197832992</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>resistor</t>
+          <t>bharadwajy</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.08937011487567909</v>
+        <v>0.07612476548738993</v>
       </c>
       <c r="C177" t="n">
-        <v>0.005766562812000198</v>
+        <v>0.0135457124449616</v>
       </c>
       <c r="D177" t="n">
-        <v>0.001665600197842467</v>
+        <v>0.001140745658906601</v>
       </c>
       <c r="E177" t="n">
-        <v>0.04674814632100809</v>
+        <v>0.001259313315013642</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>s-perron</t>
+          <t>resistor</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.08083773126487352</v>
+        <v>0.08937011487567909</v>
       </c>
       <c r="C178" t="n">
-        <v>0.02055763910023406</v>
+        <v>0.0101901359139553</v>
       </c>
       <c r="D178" t="n">
-        <v>0.0006539092464193154</v>
+        <v>0.001665600197842467</v>
       </c>
       <c r="E178" t="n">
-        <v>0.04671693921179084</v>
+        <v>0.001243813656797461</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>durga4github</t>
+          <t>hvdijk</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.0829270546935431</v>
+        <v>0.0332214833678821</v>
       </c>
       <c r="C179" t="n">
-        <v>0.01524560379002969</v>
+        <v>0.01329180585934553</v>
       </c>
       <c r="D179" t="n">
-        <v>0.001366371576844934</v>
+        <v>0.003965850435598483</v>
       </c>
       <c r="E179" t="n">
-        <v>0.04631048279914944</v>
+        <v>0.001234743594405062</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>HaohaiWen</t>
+          <t>john-brawn-arm</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.08199917898884314</v>
+        <v>0.07693102342112451</v>
       </c>
       <c r="C180" t="n">
-        <v>0.01637157408003371</v>
+        <v>0.01215418811632585</v>
       </c>
       <c r="D180" t="n">
-        <v>0.001665600197842467</v>
+        <v>0.00129236216365131</v>
       </c>
       <c r="E180" t="n">
-        <v>0.04624418175800018</v>
+        <v>0.001193506563372079</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Endilll</t>
+          <t>chapuni</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.06340125158617438</v>
+        <v>0.04142034411844097</v>
       </c>
       <c r="C181" t="n">
-        <v>0.04254947633150631</v>
+        <v>0.01270214186413745</v>
       </c>
       <c r="D181" t="n">
-        <v>0.005090204298513893</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E181" t="n">
-        <v>0.04548350955224186</v>
+        <v>0.001163882189094645</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>VladiKrapp-Arm</t>
+          <t>thevinster</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.07230797794924562</v>
+        <v>0.08644122605421314</v>
       </c>
       <c r="C182" t="n">
-        <v>0.02960466109088799</v>
+        <v>0.006448446934089545</v>
       </c>
       <c r="D182" t="n">
-        <v>0.001984270086426901</v>
+        <v>0.00288657764103874</v>
       </c>
       <c r="E182" t="n">
-        <v>0.04543224131917459</v>
+        <v>0.00113472718733598</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>MacDue</t>
+          <t>MrSidims</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.07955464632462021</v>
+        <v>0.06020159818340011</v>
       </c>
       <c r="C183" t="n">
-        <v>0.01672241409360649</v>
+        <v>0.01007046293641932</v>
       </c>
       <c r="D183" t="n">
-        <v>0.003023888782584405</v>
+        <v>0.002621718926265595</v>
       </c>
       <c r="E183" t="n">
-        <v>0.04539882514690893</v>
+        <v>0.001130601748472259</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Lukacma</t>
+          <t>VyacheslavLevytskyy</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.07041071621752833</v>
+        <v>0.06020159818340011</v>
       </c>
       <c r="C184" t="n">
-        <v>0.03027885312538458</v>
+        <v>0.009941406695967997</v>
       </c>
       <c r="D184" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.002621718926265595</v>
       </c>
       <c r="E184" t="n">
-        <v>0.04492676914842035</v>
+        <v>0.001122832356541548</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>uweigand</t>
+          <t>grypp</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.07235119433364727</v>
+        <v>0.03911543187507986</v>
       </c>
       <c r="C185" t="n">
-        <v>0.02695119982284661</v>
+        <v>0.01638253835223817</v>
       </c>
       <c r="D185" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.002334053306173014</v>
       </c>
       <c r="E185" t="n">
-        <v>0.04489871221571844</v>
+        <v>0.001107620724092458</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>thevinster</t>
+          <t>carlosgalvezp</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.08644122605421314</v>
+        <v>0.03623685346467585</v>
       </c>
       <c r="C186" t="n">
-        <v>0.003649153907196904</v>
+        <v>0.02272970909637968</v>
       </c>
       <c r="D186" t="n">
-        <v>0.00288657764103874</v>
+        <v>0.001412622736282399</v>
       </c>
       <c r="E186" t="n">
-        <v>0.04489267472747339</v>
+        <v>0.0011061776850767</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>kmpeng</t>
+          <t>hubert-reinterpretcast</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.05295502749113632</v>
+        <v>0.0831751160108357</v>
       </c>
       <c r="C187" t="n">
-        <v>0.05976824873543985</v>
+        <v>0.007242811467724691</v>
       </c>
       <c r="D187" t="n">
-        <v>0.0008219865810274839</v>
+        <v>0.002463777586713285</v>
       </c>
       <c r="E187" t="n">
-        <v>0.04457238568240561</v>
+        <v>0.001095177201415269</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>cyndyishida</t>
+          <t>Discookie</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.06768254878526148</v>
+        <v>0.09917770357439425</v>
       </c>
       <c r="C188" t="n">
-        <v>0.03330789763368411</v>
+        <v>0.008728958219714738</v>
       </c>
       <c r="D188" t="n">
-        <v>0.003015518718021384</v>
+        <v>0.001144690199797991</v>
       </c>
       <c r="E188" t="n">
-        <v>0.04443674742634025</v>
+        <v>0.001094656070787739</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>BaLiKfromUA</t>
+          <t>higher-performance</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.08134999613302352</v>
+        <v>0.1751656177013606</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0115208661044105</v>
+        <v>0.004376071615924728</v>
       </c>
       <c r="D189" t="n">
-        <v>0.0009019444184358979</v>
+        <v>0.001617739450159755</v>
       </c>
       <c r="E189" t="n">
-        <v>0.04431164678152209</v>
+        <v>0.001090085177740797</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>androm3da</t>
+          <t>dstutt</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.08368420447891231</v>
+        <v>0.04788326322287664</v>
       </c>
       <c r="C190" t="n">
-        <v>0.005911434270517312</v>
+        <v>0.00909391159674776</v>
       </c>
       <c r="D190" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.003136835154160442</v>
       </c>
       <c r="E190" t="n">
-        <v>0.04425328762265217</v>
+        <v>0.001062813193544732</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>vmustya</t>
+          <t>jayfoad</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.08799561422758828</v>
+        <v>0.04788326322287664</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>0.009092585498003616</v>
       </c>
       <c r="D191" t="n">
-        <v>0.0009932939244777</v>
+        <v>0.003136835154160442</v>
       </c>
       <c r="E191" t="n">
-        <v>0.04419646589868968</v>
+        <v>0.001062749695609507</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Zhenhang1213</t>
+          <t>rupprecht</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.07061466433213426</v>
+        <v>0.08142921779203452</v>
       </c>
       <c r="C192" t="n">
-        <v>0.02576042297252281</v>
+        <v>0.01111921363112373</v>
       </c>
       <c r="D192" t="n">
-        <v>0.003567082314596711</v>
+        <v>0.0007716528350883692</v>
       </c>
       <c r="E192" t="n">
-        <v>0.04374887552074332</v>
+        <v>0.001059759435462607</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>tstellar</t>
+          <t>AZero13</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.05268413054945918</v>
+        <v>0.09235864767603075</v>
       </c>
       <c r="C193" t="n">
-        <v>0.05454447545020241</v>
+        <v>0.004509916980230887</v>
       </c>
       <c r="D193" t="n">
-        <v>0.005182052029451914</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E193" t="n">
-        <v>0.0437418183156807</v>
+        <v>0.001054284935466109</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>aemerson</t>
+          <t>bfavela</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.08291249503476651</v>
+        <v>0.1047193131246871</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0057537434554014</v>
+        <v>0.008792934475719502</v>
       </c>
       <c r="D194" t="n">
-        <v>0.0009407404475289011</v>
+        <v>0.0006491868473111851</v>
       </c>
       <c r="E194" t="n">
-        <v>0.04337051864350945</v>
+        <v>0.001050627428109964</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>hubert-reinterpretcast</t>
+          <t>alexfh</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.0831751160108357</v>
+        <v>0.1751656177013606</v>
       </c>
       <c r="C195" t="n">
-        <v>0.00409868206045333</v>
+        <v>0.004435706590210284</v>
       </c>
       <c r="D195" t="n">
-        <v>0.002463777586713285</v>
+        <v>0.001317403877110918</v>
       </c>
       <c r="E195" t="n">
-        <v>0.04330991814089651</v>
+        <v>0.001040464060238364</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Maetveis</t>
+          <t>lizhengxing</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.08575627798055083</v>
+        <v>0.1126286789996641</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>0.007443170333160879</v>
       </c>
       <c r="D196" t="n">
-        <v>0.001132503638860512</v>
+        <v>0.0008132211067518072</v>
       </c>
       <c r="E196" t="n">
-        <v>0.04310463971804752</v>
+        <v>0.001000958663543761</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>T-Gruber</t>
+          <t>zibi2</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.07367678614985719</v>
+        <v>0.06369591609180124</v>
       </c>
       <c r="C197" t="n">
-        <v>0.01961131825615157</v>
+        <v>0.00568002391405391</v>
       </c>
       <c r="D197" t="n">
-        <v>0.0009675590512030641</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E197" t="n">
-        <v>0.04291530036201468</v>
+        <v>0.0009995494286698186</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>flovent</t>
+          <t>sdesmalen-arm</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.06339048423462083</v>
+        <v>0.1388226496569109</v>
       </c>
       <c r="C198" t="n">
-        <v>0.03675053171660762</v>
+        <v>0.005462708016256194</v>
       </c>
       <c r="D198" t="n">
-        <v>0.0009675590512030641</v>
+        <v>0.001200464588333627</v>
       </c>
       <c r="E198" t="n">
-        <v>0.04291391344253331</v>
+        <v>0.0009984405187854577</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>john-brawn-arm</t>
+          <t>mshockwave</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.07693102342112451</v>
+        <v>0.04846913003614869</v>
       </c>
       <c r="C199" t="n">
-        <v>0.01376886956431081</v>
+        <v>0.01452378526332481</v>
       </c>
       <c r="D199" t="n">
-        <v>0.00129236216365131</v>
+        <v>0.001429387820598425</v>
       </c>
       <c r="E199" t="n">
-        <v>0.04285464501258576</v>
+        <v>0.0009898328006648751</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>rupprecht</t>
+          <t>zixu-w</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.08142921779203452</v>
+        <v>0.08983300918874257</v>
       </c>
       <c r="C200" t="n">
-        <v>0.006292324691774967</v>
+        <v>0.003844175800522942</v>
       </c>
       <c r="D200" t="n">
-        <v>0.0007716528350883692</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E200" t="n">
-        <v>0.04275663687056742</v>
+        <v>0.0009830889820523355</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>sbc100</t>
+          <t>QuietMisdreavus</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.08505956263825572</v>
+        <v>0.04360018495509651</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>0.00780009937210701</v>
       </c>
       <c r="D201" t="n">
-        <v>0.001037421247322333</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E201" t="n">
-        <v>0.04273726556859232</v>
+        <v>0.000977840877332814</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ArcaneNibble</t>
+          <t>Michael137</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.08505956263825572</v>
+        <v>0.1434928631732442</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>0.003684777237182573</v>
       </c>
       <c r="D202" t="n">
-        <v>0.0008959406230512998</v>
+        <v>0.002172763821352284</v>
       </c>
       <c r="E202" t="n">
-        <v>0.04270896944373812</v>
+        <v>0.0009632920001893804</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>arichardson</t>
+          <t>compnerd</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.07841334512886348</v>
+        <v>0.1280158641771457</v>
       </c>
       <c r="C203" t="n">
-        <v>0.009780575473619185</v>
+        <v>0.004454813289571482</v>
       </c>
       <c r="D203" t="n">
-        <v>0.002074411506517015</v>
+        <v>0.001915396990848394</v>
       </c>
       <c r="E203" t="n">
-        <v>0.0425557275078209</v>
+        <v>0.0009533661711820051</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>jrtc27</t>
+          <t>ficol</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.07813191901370298</v>
+        <v>0.1023435108954407</v>
       </c>
       <c r="C204" t="n">
-        <v>0.007710357884595846</v>
+        <v>0.007141460165962388</v>
       </c>
       <c r="D204" t="n">
-        <v>0.004546463979562129</v>
+        <v>0.001096711502920269</v>
       </c>
       <c r="E204" t="n">
-        <v>0.04228835966814267</v>
+        <v>0.0009502244068885809</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>b-sumner</t>
+          <t>mariusz-sikora-at-amd</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.08198357138243706</v>
+        <v>0.05989604347653901</v>
       </c>
       <c r="C205" t="n">
-        <v>0.002554772843043209</v>
+        <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>0.001317859179397219</v>
+        <v>0.004677750703952428</v>
       </c>
       <c r="E205" t="n">
-        <v>0.04202178938001094</v>
+        <v>0.0009355501407904857</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Wolfram70</t>
+          <t>androm3da</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.0829270546935431</v>
+        <v>0.08368420447891231</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>0.003482046447589707</v>
       </c>
       <c r="D206" t="n">
-        <v>0.001366371576844934</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E206" t="n">
-        <v>0.04173680166214053</v>
+        <v>0.0009291473889659835</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>tianleliu</t>
+          <t>ritter-x2a</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.08199917898884314</v>
+        <v>0.05676457746484874</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>0.009388843324876585</v>
       </c>
       <c r="D207" t="n">
-        <v>0.001665600197842467</v>
+        <v>0.001968227150810355</v>
       </c>
       <c r="E207" t="n">
-        <v>0.04133270953399006</v>
+        <v>0.000926599154382356</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ostannard</t>
+          <t>david-arm</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.08159679895834715</v>
+        <v>0.02716770164156197</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>0.01841399530422421</v>
       </c>
       <c r="D208" t="n">
-        <v>0.001915396990848394</v>
+        <v>0.002118441135207128</v>
       </c>
       <c r="E208" t="n">
-        <v>0.04118147887734325</v>
+        <v>0.0009239541574957118</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>slackito</t>
+          <t>piotrAMD</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.08155458058440365</v>
+        <v>0.05813275966187394</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>0.00964871040955719</v>
       </c>
       <c r="D209" t="n">
-        <v>0.0004783163265306123</v>
+        <v>0.001803681028543012</v>
       </c>
       <c r="E209" t="n">
-        <v>0.04087295355750795</v>
+        <v>0.0009216423689944118</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>jacquesguan</t>
+          <t>tblah</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.07555020831551315</v>
+        <v>0.05374168860340965</v>
       </c>
       <c r="C210" t="n">
-        <v>0.008723708318124022</v>
+        <v>0.007571467957378615</v>
       </c>
       <c r="D210" t="n">
-        <v>0.00150352664255331</v>
+        <v>0.002555155743492826</v>
       </c>
       <c r="E210" t="n">
-        <v>0.04069292198170445</v>
+        <v>0.0009179346219347008</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>bharadwajy</t>
+          <t>fhahn</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.07612476548738993</v>
+        <v>0.06114222624415507</v>
       </c>
       <c r="C211" t="n">
-        <v>0.007665472012025858</v>
+        <v>0.004527101938780186</v>
       </c>
       <c r="D211" t="n">
-        <v>0.001140745658906601</v>
+        <v>0.003107111862563887</v>
       </c>
       <c r="E211" t="n">
-        <v>0.04059017347908404</v>
+        <v>0.0008982194634840287</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>hchandel</t>
+          <t>jacquesguan</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.03698890649918567</v>
+        <v>0.07555020831551315</v>
       </c>
       <c r="C212" t="n">
-        <v>0.07152230673054685</v>
+        <v>0.007661925046913121</v>
       </c>
       <c r="D212" t="n">
-        <v>0.003159394926218475</v>
+        <v>0.00150352664255331</v>
       </c>
       <c r="E212" t="n">
-        <v>0.04058302425400059</v>
+        <v>0.0008795653619027963</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Patryk27</t>
+          <t>DavidTruby</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.07555020831551315</v>
+        <v>0.04818295132226201</v>
       </c>
       <c r="C213" t="n">
-        <v>0.006469566898727365</v>
+        <v>0.01107462062459503</v>
       </c>
       <c r="D213" t="n">
-        <v>0.00150352664255331</v>
+        <v>0.001639641270682024</v>
       </c>
       <c r="E213" t="n">
-        <v>0.04001667955588545</v>
+        <v>0.0008615361606037861</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>dkolsen-pgi</t>
+          <t>kasuga-fj</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.02362003573699191</v>
+        <v>0.133180611146909</v>
       </c>
       <c r="C214" t="n">
-        <v>0.0905235215371102</v>
+        <v>0.003896215109886324</v>
       </c>
       <c r="D214" t="n">
-        <v>0.004615022232906002</v>
+        <v>0.001674729559326635</v>
       </c>
       <c r="E214" t="n">
-        <v>0.03989007877621021</v>
+        <v>0.000853846221359809</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>amy-kwan</t>
+          <t>schittir</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.06734923683690973</v>
+        <v>0.1313050307653336</v>
       </c>
       <c r="C215" t="n">
-        <v>0.01722106720657386</v>
+        <v>0.004837458457502932</v>
       </c>
       <c r="D215" t="n">
-        <v>0.004638771357185677</v>
+        <v>0.0009492913155528283</v>
       </c>
       <c r="E215" t="n">
-        <v>0.03976869285186416</v>
+        <v>0.0008250408946990116</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>preames</t>
+          <t>jsji</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.05163179402281858</v>
+        <v>0.06369591609180125</v>
       </c>
       <c r="C216" t="n">
-        <v>0.0407414940685709</v>
+        <v>0.009523269608925883</v>
       </c>
       <c r="D216" t="n">
-        <v>0.00462824687242201</v>
+        <v>0.001065836599958524</v>
       </c>
       <c r="E216" t="n">
-        <v>0.03896399460646496</v>
+        <v>0.0008197607019214488</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>smeenai</t>
+          <t>PortalPete</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.07508770468417787</v>
+        <v>0.04360018495509651</v>
       </c>
       <c r="C217" t="n">
-        <v>0.003716363811705938</v>
+        <v>0.003866072012550745</v>
       </c>
       <c r="D217" t="n">
-        <v>0.001448426320786929</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E217" t="n">
-        <v>0.03894844674975811</v>
+        <v>0.0008063165568377509</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>DimitryAndric</t>
+          <t>ornata</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.0711393102740524</v>
+        <v>0.04142034411844097</v>
       </c>
       <c r="C218" t="n">
-        <v>0.008853387362167503</v>
+        <v>0.003890564288328894</v>
       </c>
       <c r="D218" t="n">
-        <v>0.001784986858117382</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E218" t="n">
-        <v>0.03858266871729993</v>
+        <v>0.0007989036136783164</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>virginia-cangelosi</t>
+          <t>akyrtzi</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.07552961155643326</v>
+        <v>0.04142034411844097</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>0.003864006781286329</v>
       </c>
       <c r="D219" t="n">
         <v>0.003188775510204081</v>
       </c>
       <c r="E219" t="n">
-        <v>0.03840256088025745</v>
+        <v>0.0007978035925976855</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>qiongsiwu</t>
+          <t>mydeveloperday</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.05870612014310075</v>
+        <v>0.01761705984972304</v>
       </c>
       <c r="C220" t="n">
-        <v>0.02688923466148442</v>
+        <v>0.00898452513749123</v>
       </c>
       <c r="D220" t="n">
-        <v>0.004136143936144622</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E220" t="n">
-        <v>0.03824705925722463</v>
+        <v>0.0007960360191093404</v>
       </c>
     </row>
     <row r="221">
@@ -4631,1856 +4631,1856 @@
         <v>0.06870706770282405</v>
       </c>
       <c r="C221" t="n">
-        <v>0.01125613348442731</v>
+        <v>0.006630265654567742</v>
       </c>
       <c r="D221" t="n">
         <v>0.001682659364686524</v>
       </c>
       <c r="E221" t="n">
-        <v>0.03806690576967752</v>
+        <v>0.0007920779841533996</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ddkilzer</t>
+          <t>smeenai</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.07367678614985719</v>
+        <v>0.07508770468417787</v>
       </c>
       <c r="C222" t="n">
-        <v>0.002237142594221729</v>
+        <v>0.006567214054823196</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0008563296475338864</v>
+        <v>0.001448426320786929</v>
       </c>
       <c r="E222" t="n">
-        <v>0.03768080178270189</v>
+        <v>0.0007828022937037321</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>xlauko</t>
+          <t>inbelic</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.02592117883635606</v>
+        <v>0.1013441398545013</v>
       </c>
       <c r="C223" t="n">
-        <v>0.0789532223600671</v>
+        <v>0.005030780000192578</v>
       </c>
       <c r="D223" t="n">
-        <v>0.004524031285617602</v>
+        <v>0.001317032872004269</v>
       </c>
       <c r="E223" t="n">
-        <v>0.03755136238332168</v>
+        <v>0.0007732466463175985</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>adrian-prantl</t>
+          <t>Sharjeel-Khan</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.06584445174414952</v>
+        <v>0.1156987227016621</v>
       </c>
       <c r="C224" t="n">
-        <v>0.01229527465751742</v>
+        <v>0.004448968466083385</v>
       </c>
       <c r="D224" t="n">
-        <v>0.002454321476162375</v>
+        <v>0.001265463271443496</v>
       </c>
       <c r="E224" t="n">
-        <v>0.03710167256456246</v>
+        <v>0.0007678326231545199</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>asudarsa</t>
+          <t>brunodf-snps</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.06020159818340011</v>
+        <v>0.05995472744715864</v>
       </c>
       <c r="C225" t="n">
-        <v>0.02121042326186559</v>
+        <v>0.008803482619084287</v>
       </c>
       <c r="D225" t="n">
-        <v>0.002621718926265595</v>
+        <v>0.001115658494627797</v>
       </c>
       <c r="E225" t="n">
-        <v>0.03698826985551285</v>
+        <v>0.0007509420999385562</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>jonathan-albrecht-ibm</t>
+          <t>u4f3</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.07235119433364727</v>
+        <v>0.03687192911383065</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>0.009913872068742368</v>
       </c>
       <c r="D226" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.001812938467580562</v>
       </c>
       <c r="E226" t="n">
-        <v>0.03681335226886445</v>
+        <v>0.0007281312816783665</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>MrSidims</t>
+          <t>DimitryAndric</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.06020159818340011</v>
+        <v>0.0711393102740524</v>
       </c>
       <c r="C227" t="n">
-        <v>0.01709652085874134</v>
+        <v>0.00521496215686979</v>
       </c>
       <c r="D227" t="n">
-        <v>0.002621718926265595</v>
+        <v>0.001784986858117382</v>
       </c>
       <c r="E227" t="n">
-        <v>0.03575409913457557</v>
+        <v>0.0007279861825684778</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>VyacheslavLevytskyy</t>
+          <t>fmayer</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.06020159818340011</v>
+        <v>0.2292162691198907</v>
       </c>
       <c r="C228" t="n">
-        <v>0.01687742341299756</v>
+        <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>0.002621718926265595</v>
+        <v>0.003605045607734747</v>
       </c>
       <c r="E228" t="n">
-        <v>0.03568836990085244</v>
+        <v>0.0007210091215469494</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>zibi2</t>
+          <t>kastiglione</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.06369591609180124</v>
+        <v>0.04052820333774476</v>
       </c>
       <c r="C229" t="n">
-        <v>0.009642917901379066</v>
+        <v>0.007214115175328571</v>
       </c>
       <c r="D229" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.002114426802468236</v>
       </c>
       <c r="E229" t="n">
-        <v>0.03537858851835515</v>
+        <v>0.0007152604872212736</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ssahasra</t>
+          <t>veera-sivarajan</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.05437255994968408</v>
+        <v>0.02261477767087015</v>
       </c>
       <c r="C230" t="n">
-        <v>0.02494793869997271</v>
+        <v>0.02247800310518457</v>
       </c>
       <c r="D230" t="n">
-        <v>0.001813510613499094</v>
+        <v>0.0009820656062024145</v>
       </c>
       <c r="E230" t="n">
-        <v>0.03503336370753368</v>
+        <v>0.0007047481639493609</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Alcaro</t>
+          <t>yronglin</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.06933937966240608</v>
+        <v>0.1034322620306884</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>0.005167227253155113</v>
       </c>
       <c r="D231" t="n">
-        <v>0.001524593497942057</v>
+        <v>0.0007248132698409711</v>
       </c>
       <c r="E231" t="n">
-        <v>0.03497460853079145</v>
+        <v>0.000679420657188648</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Keenuts</t>
+          <t>nickdesaulniers</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.06553853893227135</v>
+        <v>0.1274293459455501</v>
       </c>
       <c r="C232" t="n">
-        <v>0.006038193770027943</v>
+        <v>0.003702261573012446</v>
       </c>
       <c r="D232" t="n">
-        <v>0.001157454250127208</v>
+        <v>0.0009585436083058311</v>
       </c>
       <c r="E232" t="n">
-        <v>0.03481221844716949</v>
+        <v>0.0006634854924294858</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Ritanya-B-Bharadwaj</t>
+          <t>sondredl</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.06888862876592305</v>
+        <v>0.05142541412530276</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>0.009158573147679471</v>
       </c>
       <c r="D233" t="n">
-        <v>0.00125288285327609</v>
+        <v>0.0009551976172059545</v>
       </c>
       <c r="E233" t="n">
-        <v>0.03469489095361675</v>
+        <v>0.0006620229403574853</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>keith</t>
+          <t>jholewinski</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.06114222624415507</v>
+        <v>0.03953521507807785</v>
       </c>
       <c r="C234" t="n">
-        <v>0.01186930911669019</v>
+        <v>0.008734722253082632</v>
       </c>
       <c r="D234" t="n">
-        <v>0.001108036311551748</v>
+        <v>0.001579251032775928</v>
       </c>
       <c r="E234" t="n">
-        <v>0.03435351311939494</v>
+        <v>0.0006611793294780801</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>piotrAMD</t>
+          <t>keith</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.05813275966187394</v>
+        <v>0.06114222624415507</v>
       </c>
       <c r="C235" t="n">
-        <v>0.01638051595228874</v>
+        <v>0.006991448057071678</v>
       </c>
       <c r="D235" t="n">
-        <v>0.001803681028543012</v>
+        <v>0.001108036311551748</v>
       </c>
       <c r="E235" t="n">
-        <v>0.0343412708223322</v>
+        <v>0.0006490799611900846</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>kiranchandramohan</t>
+          <t>alexander-shaposhnikov</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.05139429491782253</v>
+        <v>0.08937011487567909</v>
       </c>
       <c r="C236" t="n">
-        <v>0.02748183782031878</v>
+        <v>0.00342846175599067</v>
       </c>
       <c r="D236" t="n">
-        <v>0.001937817303740644</v>
+        <v>0.001665600197842467</v>
       </c>
       <c r="E236" t="n">
-        <v>0.03432926226575503</v>
+        <v>0.000639522060548252</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>saiislam</t>
+          <t>abhina-sree</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.0630261635146982</v>
+        <v>0.06369591609180124</v>
       </c>
       <c r="C237" t="n">
-        <v>0.007346761686864556</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0009879639743294406</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E237" t="n">
-        <v>0.03391470305827435</v>
+        <v>0.0006377551020408163</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>EthanLuisMcDonough</t>
+          <t>ahatanak</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.06725364127204721</v>
+        <v>0.09235864767603075</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0009178038882151807</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E238" t="n">
-        <v>0.03381038141366664</v>
+        <v>0.0006377551020408163</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>jsji</t>
+          <t>apple-fcloutier</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.06369591609180125</v>
+        <v>0.1554316434745599</v>
       </c>
       <c r="C239" t="n">
-        <v>0.005389185467121786</v>
+        <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>0.001065836599958524</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E239" t="n">
-        <v>0.03367788100602887</v>
+        <v>0.0006377551020408163</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>teresajohnson</t>
+          <t>bnbarham</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.05308112980657042</v>
+        <v>0.04142034411844097</v>
       </c>
       <c r="C240" t="n">
-        <v>0.02226704431614391</v>
+        <v>0</v>
       </c>
       <c r="D240" t="n">
-        <v>0.001386125575019782</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E240" t="n">
-        <v>0.03349790331313234</v>
+        <v>0.0006377551020408163</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>thurstond</t>
+          <t>jonathan-albrecht-ibm</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.05813275966187394</v>
+        <v>0.07235119433364727</v>
       </c>
       <c r="C241" t="n">
-        <v>0.01281047873699906</v>
+        <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>0.0008613517173092837</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E241" t="n">
-        <v>0.03308179379549855</v>
+        <v>0.0006377551020408163</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>SunilKuravinakop</t>
+          <t>owenca</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.06594307288949147</v>
+        <v>0.01761705984972304</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0004783163265306123</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E242" t="n">
-        <v>0.03306719971005186</v>
+        <v>0.0006377551020408163</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>lnihlen</t>
+          <t>virginia-cangelosi</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.05813275966187394</v>
+        <v>0.07552961155643326</v>
       </c>
       <c r="C243" t="n">
-        <v>0.01217802485435456</v>
+        <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0009130987393679646</v>
+        <v>0.003188775510204081</v>
       </c>
       <c r="E243" t="n">
-        <v>0.03290240703511692</v>
+        <v>0.0006377551020408163</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>rapidsna</t>
+          <t>b-sumner</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.06114222624415507</v>
+        <v>0.08198357138243706</v>
       </c>
       <c r="C244" t="n">
-        <v>0.006719342713049935</v>
+        <v>0.004514558038926879</v>
       </c>
       <c r="D244" t="n">
-        <v>0.00141674319094582</v>
+        <v>0.001317859179397219</v>
       </c>
       <c r="E244" t="n">
-        <v>0.03287026457418168</v>
+        <v>0.0006336914271239607</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>aeubanks</t>
+          <t>sitrin</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.02488488549099876</v>
+        <v>0.06114222624415507</v>
       </c>
       <c r="C245" t="n">
-        <v>0.06618502390382607</v>
+        <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>0.002024856533005544</v>
+        <v>0.003107111862563887</v>
       </c>
       <c r="E245" t="n">
-        <v>0.0327029212232483</v>
+        <v>0.0006214223725127775</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>dtarditi</t>
+          <t>RossComputerGuy</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.04676017555923023</v>
+        <v>0.02326703572353944</v>
       </c>
       <c r="C246" t="n">
-        <v>0.02889736399509684</v>
+        <v>0.004547718059779783</v>
       </c>
       <c r="D246" t="n">
-        <v>0.002538574411530281</v>
+        <v>0.002534709234440886</v>
       </c>
       <c r="E246" t="n">
-        <v>0.03255701186045022</v>
+        <v>0.0006127537654456587</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>whisperity</t>
+          <t>michaelrj-google</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.06335014806646044</v>
+        <v>0.02326703572353944</v>
       </c>
       <c r="C247" t="n">
-        <v>0.002063772168261875</v>
+        <v>0.004522744605595531</v>
       </c>
       <c r="D247" t="n">
-        <v>0.001228821397015839</v>
+        <v>0.002534709234440886</v>
       </c>
       <c r="E247" t="n">
-        <v>0.03253996996311195</v>
+        <v>0.0006121727071950136</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>abhina-sree</t>
+          <t>thurstond</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.06369591609180124</v>
+        <v>0.05813275966187394</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>0.007545830662545367</v>
       </c>
       <c r="D248" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.0008613517173092837</v>
       </c>
       <c r="E248" t="n">
-        <v>0.03248571314794144</v>
+        <v>0.0006109303038168056</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>balazs-benics-sonarsource</t>
+          <t>serge-sans-paille</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.05100924703692784</v>
+        <v>0.04260195402423816</v>
       </c>
       <c r="C249" t="n">
-        <v>0.02200063153637685</v>
+        <v>0.006072115041575238</v>
       </c>
       <c r="D249" t="n">
-        <v>0.001698868903251731</v>
+        <v>0.001737756296572884</v>
       </c>
       <c r="E249" t="n">
-        <v>0.03244458676002732</v>
+        <v>0.0006062352251456502</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>labrinea</t>
+          <t>asb</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.06409808592153382</v>
+        <v>0.02326703572353944</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>0.004251156945042992</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0017866077763206</v>
+        <v>0.002534709234440886</v>
       </c>
       <c r="E250" t="n">
-        <v>0.03240636451603103</v>
+        <v>0.0006058536673948651</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>JDPailleux</t>
+          <t>asl</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.05139429491782253</v>
+        <v>0.02326703572353944</v>
       </c>
       <c r="C251" t="n">
-        <v>0.02003749770506907</v>
+        <v>0.004237095015808315</v>
       </c>
       <c r="D251" t="n">
-        <v>0.001937817303740644</v>
+        <v>0.002534709234440886</v>
       </c>
       <c r="E251" t="n">
-        <v>0.03209596023118011</v>
+        <v>0.0006055264879850201</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>metaflow</t>
+          <t>mordante</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.06369591609180124</v>
+        <v>0.02326703572353944</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>0.004212130430631076</v>
       </c>
       <c r="D252" t="n">
-        <v>0.0007916640137896855</v>
+        <v>0.002534709234440886</v>
       </c>
       <c r="E252" t="n">
-        <v>0.03200629084865855</v>
+        <v>0.0006049456360898779</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>fhahn</t>
+          <t>lnihlen</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.06114222624415507</v>
+        <v>0.05813275966187394</v>
       </c>
       <c r="C253" t="n">
-        <v>0.002561871392760536</v>
+        <v>0.007173292680297974</v>
       </c>
       <c r="D253" t="n">
-        <v>0.003107111862563887</v>
+        <v>0.0009130987393679646</v>
       </c>
       <c r="E253" t="n">
-        <v>0.03196109691241847</v>
+        <v>0.0005996230472416345</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ellishg</t>
+          <t>pcc</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.05266421469955668</v>
+        <v>0.05786467745919734</v>
       </c>
       <c r="C254" t="n">
-        <v>0.01705645840217258</v>
+        <v>0.005983928885687078</v>
       </c>
       <c r="D254" t="n">
-        <v>0.002135933724002798</v>
+        <v>0.001234527157016526</v>
       </c>
       <c r="E254" t="n">
-        <v>0.03187623161523067</v>
+        <v>0.0005931635463123622</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>brunodf-snps</t>
+          <t>Patryk27</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.05995472744715864</v>
+        <v>0.07555020831551315</v>
       </c>
       <c r="C255" t="n">
-        <v>0.004981860489002724</v>
+        <v>0.003810806549860563</v>
       </c>
       <c r="D255" t="n">
-        <v>0.001115658494627797</v>
+        <v>0.00150352664255331</v>
       </c>
       <c r="E255" t="n">
-        <v>0.0316950535692057</v>
+        <v>0.0005886125572027496</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>mikolaj-pirog</t>
+          <t>dyung</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.06206009935479883</v>
+        <v>0.09766163083504324</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>0.004380483676203953</v>
       </c>
       <c r="D256" t="n">
-        <v>0.002570870669353501</v>
+        <v>0.0007837575740015734</v>
       </c>
       <c r="E256" t="n">
-        <v>0.03154422381127012</v>
+        <v>0.0005845566944646782</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>tblah</t>
+          <t>jeanPerier</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.05374168860340965</v>
+        <v>0.04002244227869985</v>
       </c>
       <c r="C257" t="n">
-        <v>0.01285400290750101</v>
+        <v>0.003917195513914709</v>
       </c>
       <c r="D257" t="n">
-        <v>0.002555155743492826</v>
+        <v>0.002107933890835158</v>
       </c>
       <c r="E257" t="n">
-        <v>0.0312380763226537</v>
+        <v>0.0005783625095170651</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>sitrin</t>
+          <t>krzysz00</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.06114222624415507</v>
+        <v>0.02589526490538297</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>0.01387381331282664</v>
       </c>
       <c r="D258" t="n">
-        <v>0.003107111862563887</v>
+        <v>0.001065412971802325</v>
       </c>
       <c r="E258" t="n">
-        <v>0.03119253549459031</v>
+        <v>0.0005723486653439399</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>balazske</t>
+          <t>ronlieb</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.04802967882011332</v>
+        <v>0.09039199983681533</v>
       </c>
       <c r="C259" t="n">
-        <v>0.02274507633289468</v>
+        <v>0.00441619964323605</v>
       </c>
       <c r="D259" t="n">
-        <v>0.00167482468924339</v>
+        <v>0.0008613517173092837</v>
       </c>
       <c r="E259" t="n">
-        <v>0.03117332724777374</v>
+        <v>0.0005714594608925937</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>rj-jesus</t>
+          <t>ElvinaYakubova</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.01950380504842525</v>
+        <v>0.05245493595372915</v>
       </c>
       <c r="C260" t="n">
-        <v>0.06936151715250982</v>
+        <v>0.005744347026592429</v>
       </c>
       <c r="D260" t="n">
-        <v>0.002718705323480018</v>
+        <v>0.001298394776295946</v>
       </c>
       <c r="E260" t="n">
-        <v>0.03110409873466157</v>
+        <v>0.0005609983106350895</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>AlexMaclean</t>
+          <t>ddpagan</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.03700672488313713</v>
+        <v>0.1230300256505107</v>
       </c>
       <c r="C261" t="n">
-        <v>0.04001149909324801</v>
+        <v>0</v>
       </c>
       <c r="D261" t="n">
-        <v>0.002334053306173014</v>
+        <v>0.002802015906767045</v>
       </c>
       <c r="E261" t="n">
-        <v>0.03097362283077757</v>
+        <v>0.0005604031813534091</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>mariusz-sikora-at-amd</t>
+          <t>ilya-biryukov</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.05989604347653901</v>
+        <v>0.09806303859868236</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>0.003787091044129921</v>
       </c>
       <c r="D262" t="n">
-        <v>0.004677750703952428</v>
+        <v>0.0009112445682586748</v>
       </c>
       <c r="E262" t="n">
-        <v>0.03088357187905999</v>
+        <v>0.0005536225688889717</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>mstorsjo</t>
+          <t>sakria9</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.06114222624415507</v>
+        <v>0.1019753379697541</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>0.004032180492599606</v>
       </c>
       <c r="D263" t="n">
-        <v>0.0009212727545085236</v>
+        <v>0.0006751556873061794</v>
       </c>
       <c r="E263" t="n">
-        <v>0.03075536767297924</v>
+        <v>0.0005462141059491301</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>sondredl</t>
+          <t>h-vetinari</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.05142541412530276</v>
+        <v>0.03171021812466814</v>
       </c>
       <c r="C264" t="n">
-        <v>0.01554841498788975</v>
+        <v>0.007355682839042235</v>
       </c>
       <c r="D264" t="n">
-        <v>0.0009551976172059545</v>
+        <v>0.001469465334888202</v>
       </c>
       <c r="E264" t="n">
-        <v>0.03056827108245949</v>
+        <v>0.0005271433742595478</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ritter-x2a</t>
+          <t>rapidsna</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.05676457746484874</v>
+        <v>0.06114222624415507</v>
       </c>
       <c r="C265" t="n">
-        <v>0.005313114096033156</v>
+        <v>0.003957933447861177</v>
       </c>
       <c r="D265" t="n">
-        <v>0.001968227150810355</v>
+        <v>0.00141674319094582</v>
       </c>
       <c r="E265" t="n">
-        <v>0.03036986839139639</v>
+        <v>0.0005253455005176009</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>pcc</t>
+          <t>mmha</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.05786467745919734</v>
+        <v>0.01426234497612868</v>
       </c>
       <c r="C266" t="n">
-        <v>0.003386284743719687</v>
+        <v>0.01821637021080376</v>
       </c>
       <c r="D266" t="n">
-        <v>0.001234527157016526</v>
+        <v>0.001284546147369046</v>
       </c>
       <c r="E266" t="n">
-        <v>0.03019512958411788</v>
+        <v>0.0005167173856331663</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>DavidTruby</t>
+          <t>mikolaj-pirog</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.04818295132226201</v>
+        <v>0.06206009935479883</v>
       </c>
       <c r="C267" t="n">
-        <v>0.01880126898896638</v>
+        <v>0</v>
       </c>
       <c r="D267" t="n">
-        <v>0.001639641270682024</v>
+        <v>0.002570870669353501</v>
       </c>
       <c r="E267" t="n">
-        <v>0.03005978461195732</v>
+        <v>0.0005141741338707003</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>inaki-amatria</t>
+          <t>Il-Capitano</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.04818295132226201</v>
+        <v>0.03863544533610916</v>
       </c>
       <c r="C268" t="n">
-        <v>0.01774422236520933</v>
+        <v>0.005645335739236959</v>
       </c>
       <c r="D268" t="n">
-        <v>0.001639641270682024</v>
+        <v>0.00143592914014637</v>
       </c>
       <c r="E268" t="n">
-        <v>0.02974267062483021</v>
+        <v>0.0005052958883865471</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>pfusik</t>
+          <t>kovdan01</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.05779469959626077</v>
+        <v>0.09121701325466985</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>0.004388369552502479</v>
       </c>
       <c r="D269" t="n">
-        <v>0.002207953884919551</v>
+        <v>0.0004783163265306123</v>
       </c>
       <c r="E269" t="n">
-        <v>0.0293389405751143</v>
+        <v>0.0004959572289431307</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>jmmartinez</t>
+          <t>lei137</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.05813275966187394</v>
+        <v>0.04014276509754877</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>0.0007720764632445683</v>
+        <v>0.002463777586713285</v>
       </c>
       <c r="E270" t="n">
-        <v>0.02922079512358588</v>
+        <v>0.000492755517342657</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>dstutt</t>
+          <t>whisperity</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.04788326322287664</v>
+        <v>0.06335014806646044</v>
       </c>
       <c r="C271" t="n">
-        <v>0.01543863974108708</v>
+        <v>0.003646907104915794</v>
       </c>
       <c r="D271" t="n">
-        <v>0.003136835154160442</v>
+        <v>0.001228821397015839</v>
       </c>
       <c r="E271" t="n">
-        <v>0.02920059056459653</v>
+        <v>0.0004767963844842099</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>jayfoad</t>
+          <t>saiislam</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.04788326322287664</v>
+        <v>0.0630261635146982</v>
       </c>
       <c r="C272" t="n">
-        <v>0.01543638843695309</v>
+        <v>0.004327505688530004</v>
       </c>
       <c r="D272" t="n">
-        <v>0.003136835154160442</v>
+        <v>0.0009879639743294406</v>
       </c>
       <c r="E272" t="n">
-        <v>0.02919991517335633</v>
+        <v>0.0004703388760019668</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>alanzhao1</t>
+          <t>aemerson</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.02181036231283233</v>
+        <v>0.08291249503476651</v>
       </c>
       <c r="C273" t="n">
-        <v>0.05891165543985391</v>
+        <v>0.00338916091127741</v>
       </c>
       <c r="D273" t="n">
-        <v>0.001531415362113005</v>
+        <v>0.0009407404475289011</v>
       </c>
       <c r="E273" t="n">
-        <v>0.02888496086079494</v>
+        <v>0.0004691518767340932</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ahmedbougacha</t>
+          <t>Keenuts</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.05652293485477763</v>
+        <v>0.06553853893227135</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>0.003556712331497203</v>
       </c>
       <c r="D274" t="n">
-        <v>0.0017866077763206</v>
+        <v>0.001157454250127208</v>
       </c>
       <c r="E274" t="n">
-        <v>0.02861878898265293</v>
+        <v>0.0004645925796341607</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ilovepi</t>
+          <t>ddkilzer</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.03025742355579874</v>
+        <v>0.07367678614985719</v>
       </c>
       <c r="C275" t="n">
-        <v>0.04112677981793098</v>
+        <v>0.003953271270465992</v>
       </c>
       <c r="D275" t="n">
-        <v>0.003427868081794542</v>
+        <v>0.0008563296475338864</v>
       </c>
       <c r="E275" t="n">
-        <v>0.02815231933963757</v>
+        <v>0.0004625302514932745</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>tru</t>
+          <t>pfusik</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.03728007962830633</v>
+        <v>0.05779469959626077</v>
       </c>
       <c r="C276" t="n">
-        <v>0.02848215668621821</v>
+        <v>0</v>
       </c>
       <c r="D276" t="n">
-        <v>0.001737756296572884</v>
+        <v>0.002207953884919551</v>
       </c>
       <c r="E276" t="n">
-        <v>0.02753223807933321</v>
+        <v>0.0004415907769839103</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ElvinaYakubova</t>
+          <t>cjdb</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.05245493595372915</v>
+        <v>0.04738228227220238</v>
       </c>
       <c r="C277" t="n">
-        <v>0.003250706194939681</v>
+        <v>0.005957643187606759</v>
       </c>
       <c r="D277" t="n">
-        <v>0.001298394776295946</v>
+        <v>0.0006392340164285174</v>
       </c>
       <c r="E277" t="n">
-        <v>0.02746235879060567</v>
+        <v>0.0004101335344779505</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>kkwli</t>
+          <t>nico</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.04723625932843069</v>
+        <v>0.1182088297726389</v>
       </c>
       <c r="C278" t="n">
-        <v>0.009828867150853298</v>
+        <v>0</v>
       </c>
       <c r="D278" t="n">
-        <v>0.00367252145206665</v>
+        <v>0.002013732133327161</v>
       </c>
       <c r="E278" t="n">
-        <v>0.02730129409988466</v>
+        <v>0.0004027464266654323</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>mshockwave</t>
+          <t>ostannard</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.04846913003614869</v>
+        <v>0.08159679895834715</v>
       </c>
       <c r="C279" t="n">
-        <v>0.008218960050794547</v>
+        <v>0</v>
       </c>
       <c r="D279" t="n">
-        <v>0.001429387820598425</v>
+        <v>0.001915396990848394</v>
       </c>
       <c r="E279" t="n">
-        <v>0.0269861305974324</v>
+        <v>0.0003830793981696788</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>paulwalker-arm</t>
+          <t>keryell</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.01670199967895392</v>
+        <v>0.02221954615628052</v>
       </c>
       <c r="C280" t="n">
-        <v>0.05794666580803159</v>
+        <v>0.006379873975974316</v>
       </c>
       <c r="D280" t="n">
-        <v>0.002718705323480018</v>
+        <v>0.001127645965545397</v>
       </c>
       <c r="E280" t="n">
-        <v>0.02627874064658244</v>
+        <v>0.0003672870973894936</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>jmorse</t>
+          <t>ahmedbougacha</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.0332214833678821</v>
+        <v>0.05652293485477763</v>
       </c>
       <c r="C281" t="n">
-        <v>0.02668206125166884</v>
+        <v>0</v>
       </c>
       <c r="D281" t="n">
-        <v>0.003965850435598483</v>
+        <v>0.0017866077763206</v>
       </c>
       <c r="E281" t="n">
-        <v>0.0254085301465614</v>
+        <v>0.0003573215552641201</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>grypp</t>
+          <t>labrinea</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.03911543187507986</v>
+        <v>0.06409808592153382</v>
       </c>
       <c r="C282" t="n">
-        <v>0.01732624435980385</v>
+        <v>0</v>
       </c>
       <c r="D282" t="n">
-        <v>0.002334053306173014</v>
+        <v>0.0017866077763206</v>
       </c>
       <c r="E282" t="n">
-        <v>0.02522239990671569</v>
+        <v>0.0003573215552641201</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>OCHyams</t>
+          <t>ravurvi20</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.03566357771218893</v>
+        <v>0.154865614719354</v>
       </c>
       <c r="C283" t="n">
-        <v>0.02109349519674679</v>
+        <v>0</v>
       </c>
       <c r="D283" t="n">
-        <v>0.003385780363102397</v>
+        <v>0.001718218766371494</v>
       </c>
       <c r="E283" t="n">
-        <v>0.02483699348773899</v>
+        <v>0.0003436437532742989</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>cjdb</t>
+          <t>tianleliu</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.04738228227220238</v>
+        <v>0.08199917898884314</v>
       </c>
       <c r="C284" t="n">
-        <v>0.003371409757721724</v>
+        <v>0</v>
       </c>
       <c r="D284" t="n">
-        <v>0.0006392340164285174</v>
+        <v>0.001665600197842467</v>
       </c>
       <c r="E284" t="n">
-        <v>0.02483041086670341</v>
+        <v>0.0003331200395684933</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>QuietMisdreavus</t>
+          <t>Alcaro</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.04360018495509651</v>
+        <v>0.06933937966240608</v>
       </c>
       <c r="C285" t="n">
-        <v>0.004414049365867535</v>
+        <v>0</v>
       </c>
       <c r="D285" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.001524593497942057</v>
       </c>
       <c r="E285" t="n">
-        <v>0.02376206238934933</v>
+        <v>0.0003049186995884113</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>goldsteinn</t>
+          <t>JonChesterfield</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.01102633137873564</v>
+        <v>0.1110393942353362</v>
       </c>
       <c r="C286" t="n">
-        <v>0.05963191743401119</v>
+        <v>0</v>
       </c>
       <c r="D286" t="n">
-        <v>0.0009820656062024145</v>
+        <v>0.001507934462801291</v>
       </c>
       <c r="E286" t="n">
-        <v>0.02359915404081166</v>
+        <v>0.0003015868925602582</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>chapuni</t>
+          <t>mylai-mtk</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.04142034411844097</v>
+        <v>0.1192856075893167</v>
       </c>
       <c r="C287" t="n">
-        <v>0.007188098326164015</v>
+        <v>0</v>
       </c>
       <c r="D287" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.001498840681116527</v>
       </c>
       <c r="E287" t="n">
-        <v>0.02350435665911051</v>
+        <v>0.0002997681362233055</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ornata</t>
+          <t>pedroclobo</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.04142034411844097</v>
+        <v>0.01970076674110276</v>
       </c>
       <c r="C288" t="n">
-        <v>0.006604970787106571</v>
+        <v>0</v>
       </c>
       <c r="D288" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.001437620806516966</v>
       </c>
       <c r="E288" t="n">
-        <v>0.02332941839739327</v>
+        <v>0.0002875241613033932</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>pranavk</t>
+          <t>Wolfram70</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.04644883175021689</v>
+        <v>0.0829270546935431</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
       </c>
       <c r="D289" t="n">
-        <v>0.0004783163265306123</v>
+        <v>0.001366371576844934</v>
       </c>
       <c r="E289" t="n">
-        <v>0.02332007914041457</v>
+        <v>0.0002732743153689867</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>akyrtzi</t>
+          <t>Vipul-Cariappa</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.04142034411844097</v>
+        <v>0.1475602129367469</v>
       </c>
       <c r="C290" t="n">
-        <v>0.006559884381846356</v>
+        <v>0</v>
       </c>
       <c r="D290" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.001332373007819214</v>
       </c>
       <c r="E290" t="n">
-        <v>0.02331589247581521</v>
+        <v>0.0002664746015638428</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>mayanez</t>
+          <t>anutosh491</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.04592876718293065</v>
+        <v>0.2048577223679972</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
       </c>
       <c r="D291" t="n">
-        <v>0.00129236216365131</v>
+        <v>0.001332373007819214</v>
       </c>
       <c r="E291" t="n">
-        <v>0.02322285602419558</v>
+        <v>0.0002664746015638428</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>PortalPete</t>
+          <t>mayanez</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.04360018495509651</v>
+        <v>0.04592876718293065</v>
       </c>
       <c r="C292" t="n">
-        <v>0.0021877968345406</v>
+        <v>0</v>
       </c>
       <c r="D292" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.00129236216365131</v>
       </c>
       <c r="E292" t="n">
-        <v>0.02309418662995125</v>
+        <v>0.0002584724327302619</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>jholewinski</t>
+          <t>Ritanya-B-Bharadwaj</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.03953521507807785</v>
+        <v>0.06888862876592305</v>
       </c>
       <c r="C293" t="n">
-        <v>0.009886656502775851</v>
+        <v>0</v>
       </c>
       <c r="D293" t="n">
-        <v>0.001579251032775928</v>
+        <v>0.00125288285327609</v>
       </c>
       <c r="E293" t="n">
-        <v>0.02304945469642686</v>
+        <v>0.000250576570655218</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>serge-sans-paille</t>
+          <t>lquinn2015</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.04260195402423816</v>
+        <v>0.04483549619523049</v>
       </c>
       <c r="C294" t="n">
-        <v>0.003436188985564144</v>
+        <v>0</v>
       </c>
       <c r="D294" t="n">
-        <v>0.001737756296572884</v>
+        <v>0.001144510992534</v>
       </c>
       <c r="E294" t="n">
-        <v>0.0226793849671029</v>
+        <v>0.0002289021985068</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>lquinn2015</t>
+          <t>Maetveis</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.04483549619523049</v>
+        <v>0.08575627798055083</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
       </c>
       <c r="D295" t="n">
-        <v>0.001144510992534</v>
+        <v>0.001132503638860512</v>
       </c>
       <c r="E295" t="n">
-        <v>0.02264665029612205</v>
+        <v>0.0002265007277721024</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>jeanPerier</t>
+          <t>wzssyqa</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.04002244227869985</v>
+        <v>0.1391569596241288</v>
       </c>
       <c r="C296" t="n">
-        <v>0.006650182343575851</v>
+        <v>0</v>
       </c>
       <c r="D296" t="n">
-        <v>0.002107933890835158</v>
+        <v>0.001065836599958524</v>
       </c>
       <c r="E296" t="n">
-        <v>0.02242786262058971</v>
+        <v>0.0002131673199917048</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>carlosgalvezp</t>
+          <t>sbc100</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.03623685346467585</v>
+        <v>0.08505956263825572</v>
       </c>
       <c r="C297" t="n">
-        <v>0.01286266408117908</v>
+        <v>0</v>
       </c>
       <c r="D297" t="n">
-        <v>0.001412622736282399</v>
+        <v>0.001037421247322333</v>
       </c>
       <c r="E297" t="n">
-        <v>0.02225975050394813</v>
+        <v>0.0002074842494644665</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>kastiglione</t>
+          <t>4vtomat</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.04052820333774476</v>
+        <v>0.09518724771071306</v>
       </c>
       <c r="C298" t="n">
-        <v>0.004082442927435769</v>
+        <v>0</v>
       </c>
       <c r="D298" t="n">
-        <v>0.002114426802468236</v>
+        <v>0.001019469625215107</v>
       </c>
       <c r="E298" t="n">
-        <v>0.02191171990759676</v>
+        <v>0.0002038939250430215</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>bnbarham</t>
+          <t>vmustya</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.04142034411844097</v>
+        <v>0.08799561422758828</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
       </c>
       <c r="D299" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.0009932939244777</v>
       </c>
       <c r="E299" t="n">
-        <v>0.0213479271612613</v>
+        <v>0.00019865878489554</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>realqhc</t>
+          <t>mpark</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.04164795053131523</v>
+        <v>0.1143987683575149</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
       </c>
       <c r="D300" t="n">
-        <v>0.0008110377202289144</v>
+        <v>0.0009794266631223726</v>
       </c>
       <c r="E300" t="n">
-        <v>0.0209861828097034</v>
+        <v>0.0001958853326244745</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>lei137</t>
+          <t>kuilpd</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.04014276509754877</v>
+        <v>0.1472383595303939</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
       </c>
       <c r="D301" t="n">
-        <v>0.002463777586713285</v>
+        <v>0.0009667683910449317</v>
       </c>
       <c r="E301" t="n">
-        <v>0.02056413806611704</v>
+        <v>0.0001933536782089863</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Il-Capitano</t>
+          <t>chandlerc</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.03863544533610916</v>
+        <v>0.1165588755948182</v>
       </c>
       <c r="C302" t="n">
-        <v>0.003194676048486934</v>
+        <v>0</v>
       </c>
       <c r="D302" t="n">
-        <v>0.00143592914014637</v>
+        <v>0.0009320263181005093</v>
       </c>
       <c r="E302" t="n">
-        <v>0.02056331131062993</v>
+        <v>0.0001864052636201019</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>u4f3</t>
+          <t>mstorsjo</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.03687192911383065</v>
+        <v>0.06114222624415507</v>
       </c>
       <c r="C303" t="n">
-        <v>0.005610226053633382</v>
+        <v>0</v>
       </c>
       <c r="D303" t="n">
-        <v>0.001812938467580562</v>
+        <v>0.0009212727545085236</v>
       </c>
       <c r="E303" t="n">
-        <v>0.02048162006652145</v>
+        <v>0.0001842545509017047</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>david-arm</t>
+          <t>EthanLuisMcDonough</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.02716770164156197</v>
+        <v>0.06725364127204721</v>
       </c>
       <c r="C304" t="n">
-        <v>0.02095757941907633</v>
+        <v>0</v>
       </c>
       <c r="D304" t="n">
-        <v>0.002118441135207128</v>
+        <v>0.0009178038882151807</v>
       </c>
       <c r="E304" t="n">
-        <v>0.02029481287354531</v>
+        <v>0.0001835607776430362</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>hvdijk</t>
+          <t>Prabhuk</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.0332214833678821</v>
+        <v>0.1125060303371958</v>
       </c>
       <c r="C305" t="n">
-        <v>0.007521787149851408</v>
+        <v>0</v>
       </c>
       <c r="D305" t="n">
-        <v>0.003965850435598483</v>
+        <v>0.0009130987393679646</v>
       </c>
       <c r="E305" t="n">
-        <v>0.01966044791601617</v>
+        <v>0.0001826197478735929</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>h-vetinari</t>
+          <t>shynur</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.03171021812466814</v>
+        <v>0.2225235145681233</v>
       </c>
       <c r="C306" t="n">
-        <v>0.004162555580676731</v>
+        <v>0</v>
       </c>
       <c r="D306" t="n">
-        <v>0.001469465334888202</v>
+        <v>0.0009067044516196708</v>
       </c>
       <c r="E306" t="n">
-        <v>0.01739776880351473</v>
+        <v>0.0001813408903239342</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>krzysz00</t>
+          <t>ArcaneNibble</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.02589526490538297</v>
+        <v>0.08505956263825572</v>
       </c>
       <c r="C307" t="n">
-        <v>0.007851143162949803</v>
+        <v>0</v>
       </c>
       <c r="D307" t="n">
-        <v>0.001065412971802325</v>
+        <v>0.0008959406230512998</v>
       </c>
       <c r="E307" t="n">
-        <v>0.01551605799593689</v>
+        <v>0.00017918812461026</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>veera-sivarajan</t>
+          <t>boomanaiden154</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.02261477767087015</v>
+        <v>0.128494978701473</v>
       </c>
       <c r="C308" t="n">
-        <v>0.01272022452780712</v>
+        <v>0</v>
       </c>
       <c r="D308" t="n">
-        <v>0.0009820656062024145</v>
+        <v>0.000816890192492868</v>
       </c>
       <c r="E308" t="n">
-        <v>0.01531986931501769</v>
+        <v>0.0001633780384985736</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>keryell</t>
+          <t>bwendling</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.02221954615628052</v>
+        <v>0.09912388296049882</v>
       </c>
       <c r="C309" t="n">
-        <v>0.01083104611923316</v>
+        <v>0</v>
       </c>
       <c r="D309" t="n">
-        <v>0.001127645965545397</v>
+        <v>0.000816890192492868</v>
       </c>
       <c r="E309" t="n">
-        <v>0.01458461610701929</v>
+        <v>0.0001633780384985736</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>RossComputerGuy</t>
+          <t>realqhc</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.02326703572353944</v>
+        <v>0.04164795053131523</v>
       </c>
       <c r="C310" t="n">
-        <v>0.007720613953855112</v>
+        <v>0</v>
       </c>
       <c r="D310" t="n">
-        <v>0.002534709234440886</v>
+        <v>0.0008110377202289144</v>
       </c>
       <c r="E310" t="n">
-        <v>0.01445664389481443</v>
+        <v>0.0001622075440457829</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>michaelrj-google</t>
+          <t>metaflow</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.02326703572353944</v>
+        <v>0.06369591609180124</v>
       </c>
       <c r="C311" t="n">
-        <v>0.00767821677876281</v>
+        <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>0.002534709234440886</v>
+        <v>0.0007916640137896855</v>
       </c>
       <c r="E311" t="n">
-        <v>0.01444392474228674</v>
+        <v>0.0001583328027579371</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>mordante</t>
+          <t>jmmartinez</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.02326703572353944</v>
+        <v>0.05813275966187394</v>
       </c>
       <c r="C312" t="n">
-        <v>0.007150890303820366</v>
+        <v>0</v>
       </c>
       <c r="D312" t="n">
-        <v>0.002534709234440886</v>
+        <v>0.0007720764632445683</v>
       </c>
       <c r="E312" t="n">
-        <v>0.014285726799804</v>
+        <v>0.0001544152926489137</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>mydeveloperday</t>
+          <t>MagentaTreehouse</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.01761705984972304</v>
+        <v>0.1844658982413747</v>
       </c>
       <c r="C313" t="n">
-        <v>0.01525293547960969</v>
+        <v>0</v>
       </c>
       <c r="D313" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.0007302176236229918</v>
       </c>
       <c r="E313" t="n">
-        <v>0.01402216567078524</v>
+        <v>0.0001460435247245984</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>asb</t>
+          <t>NewSigma</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.02326703572353944</v>
+        <v>0.1221694990750238</v>
       </c>
       <c r="C314" t="n">
-        <v>0.002405715071345497</v>
+        <v>0</v>
       </c>
       <c r="D314" t="n">
-        <v>0.002534709234440886</v>
+        <v>0.0006752341214501989</v>
       </c>
       <c r="E314" t="n">
-        <v>0.01286217423006154</v>
+        <v>0.0001350468242900398</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>asl</t>
+          <t>GS-GOAT</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.02326703572353944</v>
+        <v>0.2326074972025579</v>
       </c>
       <c r="C315" t="n">
-        <v>0.002397757474030371</v>
+        <v>0</v>
       </c>
       <c r="D315" t="n">
-        <v>0.002534709234440886</v>
+        <v>0.0006751556873061794</v>
       </c>
       <c r="E315" t="n">
-        <v>0.012859786950867</v>
+        <v>0.0001350311374612359</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>mmha</t>
+          <t>SunilKuravinakop</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.01426234497612868</v>
+        <v>0.06594307288949147</v>
       </c>
       <c r="C316" t="n">
-        <v>0.01030858115281759</v>
+        <v>0</v>
       </c>
       <c r="D316" t="n">
-        <v>0.001284546147369046</v>
+        <v>0.0004783163265306123</v>
       </c>
       <c r="E316" t="n">
-        <v>0.01048065606338343</v>
+        <v>9.566326530612246e-05</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>pedroclobo</t>
+          <t>pranavk</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.01970076674110276</v>
+        <v>0.04644883175021689</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
       </c>
       <c r="D317" t="n">
-        <v>0.001437620806516966</v>
+        <v>0.0004783163265306123</v>
       </c>
       <c r="E317" t="n">
-        <v>0.01013790753185477</v>
+        <v>9.566326530612246e-05</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>owenca</t>
+          <t>slackito</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.01761705984972304</v>
+        <v>0.08155458058440365</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
       </c>
       <c r="D318" t="n">
-        <v>0.003188775510204081</v>
+        <v>0.0004783163265306123</v>
       </c>
       <c r="E318" t="n">
-        <v>0.009446285026902337</v>
+        <v>9.566326530612246e-05</v>
       </c>
     </row>
   </sheetData>
